--- a/staticfiles/excel/Overall Rank.xlsx
+++ b/staticfiles/excel/Overall Rank.xlsx
@@ -13,17 +13,17 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1695792855" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1695792855" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1695792855" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1695792855"/>
+      <pm:revision xmlns:pm="smNativeData" day="1697004958" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1697004958" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1697004958" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1697004958"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="134">
   <si>
     <t>Overall_Rank</t>
   </si>
@@ -46,145 +46,385 @@
     <t>plus_minus</t>
   </si>
   <si>
-    <t>Relly Medina</t>
+    <t>Eris Ocado</t>
+  </si>
+  <si>
+    <t>ʸᵍᵒ ᴇʀɪs°</t>
+  </si>
+  <si>
+    <t>Prince Nitsuga</t>
+  </si>
+  <si>
+    <t>Aj Prince</t>
+  </si>
+  <si>
+    <t>Emz M. Cinco</t>
+  </si>
+  <si>
+    <t>repadz04</t>
+  </si>
+  <si>
+    <t>Anjelou F. Naong</t>
+  </si>
+  <si>
+    <t>Aeon</t>
+  </si>
+  <si>
+    <t>U Aung Kyaw Soe</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Jayson Pogoy</t>
+  </si>
+  <si>
+    <t>Flux.</t>
+  </si>
+  <si>
+    <t>Rowie Gell Gallego</t>
+  </si>
+  <si>
+    <t>Kayl.</t>
+  </si>
+  <si>
+    <t>Yoon Ei</t>
+  </si>
+  <si>
+    <t>Jay-ar Villarin Sacayan</t>
+  </si>
+  <si>
+    <t>ᴘᴇ | ᴄhocoknotz</t>
+  </si>
+  <si>
+    <t>Jomailyn Fay P. Aguilar</t>
+  </si>
+  <si>
+    <t>Star18</t>
+  </si>
+  <si>
+    <t>Yoko Na</t>
+  </si>
+  <si>
+    <t>Naga Siren</t>
+  </si>
+  <si>
+    <t>Socorro Reyes</t>
+  </si>
+  <si>
+    <t>Soki71</t>
+  </si>
+  <si>
+    <t>Jay C. Montes</t>
+  </si>
+  <si>
+    <t>SIKAD</t>
+  </si>
+  <si>
+    <t>Nilchar Mitsuhide</t>
+  </si>
+  <si>
+    <t>Pakbet ni Aling Beth</t>
+  </si>
+  <si>
+    <t>Choii Zhee</t>
+  </si>
+  <si>
+    <t>Kurdapyo</t>
+  </si>
+  <si>
+    <t>Jundel Palma</t>
+  </si>
+  <si>
+    <t>Sukol DAW Beh</t>
+  </si>
+  <si>
+    <t>Kevin Ongjunco</t>
+  </si>
+  <si>
+    <t>{†KILLAZ†}</t>
+  </si>
+  <si>
+    <t>Jinny Lapadan</t>
+  </si>
+  <si>
+    <t>Jinny</t>
+  </si>
+  <si>
+    <t>Sharwin Paolo Cabataña</t>
+  </si>
+  <si>
+    <t>Lewenzeith D. Pelaez</t>
+  </si>
+  <si>
+    <t>Skidamarink Arellano</t>
+  </si>
+  <si>
+    <t>MikeeMike</t>
+  </si>
+  <si>
+    <t>Limar N.Ramis</t>
+  </si>
+  <si>
+    <t>Aniloj23</t>
+  </si>
+  <si>
+    <t>Michael Angelo S Trongco</t>
+  </si>
+  <si>
+    <t>Asmodeus.</t>
+  </si>
+  <si>
+    <t>Joey Carlo Doysabas</t>
+  </si>
+  <si>
+    <t>❦᭄Daenerys♛</t>
+  </si>
+  <si>
+    <t>Enry Charles Bernardo</t>
+  </si>
+  <si>
+    <t>Ryy.</t>
+  </si>
+  <si>
+    <t>Relly H. Medina</t>
   </si>
   <si>
     <t>ᴵᴱ°HowMuch</t>
   </si>
   <si>
-    <t>+3</t>
-  </si>
-  <si>
-    <t>Choii Zhee</t>
-  </si>
-  <si>
-    <t>kurdapyo</t>
-  </si>
-  <si>
-    <t>+1</t>
-  </si>
-  <si>
-    <t>Eduard Caba Jr</t>
+    <t>Ely John Guevarra</t>
+  </si>
+  <si>
+    <t>my.heart.went.chips.</t>
+  </si>
+  <si>
+    <t>Melvin Abilong</t>
+  </si>
+  <si>
+    <t>EGGPLANT GAMING</t>
+  </si>
+  <si>
+    <t>Ryan Jay Maambong Zarate</t>
+  </si>
+  <si>
+    <t>MAGNUS</t>
+  </si>
+  <si>
+    <t>John Dave V. Lazaga</t>
+  </si>
+  <si>
+    <t>jd gwapo</t>
+  </si>
+  <si>
+    <t>Jd Pedraja</t>
+  </si>
+  <si>
+    <t>Shantidolph</t>
+  </si>
+  <si>
+    <t>Dan Antony Densing</t>
+  </si>
+  <si>
+    <t>dant0y</t>
+  </si>
+  <si>
+    <t>Christian Dula Mosende</t>
+  </si>
+  <si>
+    <t>Lando.</t>
+  </si>
+  <si>
+    <t>Lhove</t>
+  </si>
+  <si>
+    <t>Jowa ko si S1</t>
+  </si>
+  <si>
+    <t>Ace Candy</t>
   </si>
   <si>
     <t>Draude</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
-    <t>Jonathan Laconsay</t>
-  </si>
-  <si>
-    <t>春•Haru</t>
-  </si>
-  <si>
-    <t>Eris Ocado</t>
-  </si>
-  <si>
-    <t>ʸᵍᵒ ᴇʀɪs°</t>
-  </si>
-  <si>
-    <t>Kryztyn Gardose Cordero</t>
+    <t>Brian Okta Vyanto Eky Mahendra</t>
+  </si>
+  <si>
+    <t>AS.Briii</t>
+  </si>
+  <si>
+    <t>Paolo Biscayda</t>
+  </si>
+  <si>
+    <t>MARU.</t>
+  </si>
+  <si>
+    <t>Ranniel Tolentino</t>
+  </si>
+  <si>
+    <t>愛ʀᴀɴιᴇʟツ</t>
+  </si>
+  <si>
+    <t>Jomark Duran Cañelas</t>
+  </si>
+  <si>
+    <t>Solid Mensuration</t>
+  </si>
+  <si>
+    <t>Jaylord Sanchez Cabije</t>
+  </si>
+  <si>
+    <t>WholsJohnGalt</t>
+  </si>
+  <si>
+    <t>Mark Lesther R. Tamayo</t>
+  </si>
+  <si>
+    <t>Łəstinē⁰⁵</t>
+  </si>
+  <si>
+    <t>Akuh Nhi</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>Lucky John Tagala</t>
+  </si>
+  <si>
+    <t>Antimage</t>
+  </si>
+  <si>
+    <t>Joshua Villegas</t>
+  </si>
+  <si>
+    <t>ʏᴏɴᴋᴏ Shanks</t>
+  </si>
+  <si>
+    <t>Edgardo Estrada</t>
+  </si>
+  <si>
+    <t>EdStronG</t>
+  </si>
+  <si>
+    <t>Christian Nevado</t>
+  </si>
+  <si>
+    <t>av⁰² Jinx</t>
+  </si>
+  <si>
+    <t>Ian Gerome Alumno</t>
+  </si>
+  <si>
+    <t>IanTzy God Mode</t>
+  </si>
+  <si>
+    <t>Xyvian Shane Gera Tia</t>
+  </si>
+  <si>
+    <t>Sʜᴇɴɢ♡</t>
+  </si>
+  <si>
+    <t>Kryztyn Cordero</t>
   </si>
   <si>
     <t>ƚყɳ</t>
   </si>
   <si>
-    <t>+11</t>
-  </si>
-  <si>
-    <t>Jundel Palma</t>
-  </si>
-  <si>
-    <t>Sukol Daw Beh</t>
-  </si>
-  <si>
-    <t>+8</t>
-  </si>
-  <si>
-    <t>Jomailyn Fay P. Aguilar</t>
-  </si>
-  <si>
-    <t>Star18</t>
-  </si>
-  <si>
-    <t>+2</t>
-  </si>
-  <si>
-    <t>Jay-ar Villarin Sacayan</t>
-  </si>
-  <si>
-    <t>ᴘᴇ | ᴄhocoknotz</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>Jay Paul Butad</t>
-  </si>
-  <si>
-    <t>I'll roam</t>
-  </si>
-  <si>
-    <t>-8</t>
-  </si>
-  <si>
-    <t>Piolo Aguilera</t>
+    <t>Fernando Labajo</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°FERNZ</t>
+  </si>
+  <si>
+    <t>Teejay Caraan</t>
+  </si>
+  <si>
+    <t>makisig</t>
+  </si>
+  <si>
+    <t>Denise Fulo</t>
+  </si>
+  <si>
+    <t>Ishie.</t>
+  </si>
+  <si>
+    <t>Patrick Fermanes</t>
+  </si>
+  <si>
+    <t>Paᴛʀick God Mode</t>
+  </si>
+  <si>
+    <t>Cedric Mer Villegas</t>
+  </si>
+  <si>
+    <t>DeathGun001</t>
+  </si>
+  <si>
+    <t>Renz Silang Rico</t>
+  </si>
+  <si>
+    <t>Maldito</t>
+  </si>
+  <si>
+    <t>Clyde Morcillos</t>
+  </si>
+  <si>
+    <t>ᴮᶠᵁUNLOVED</t>
+  </si>
+  <si>
+    <t>Gray Plays</t>
+  </si>
+  <si>
+    <t>ɢʀᴀʏ</t>
+  </si>
+  <si>
+    <t>Jimmy E. Elloran</t>
+  </si>
+  <si>
+    <t>Нyроиіх</t>
+  </si>
+  <si>
+    <t>Liezel Felipe</t>
+  </si>
+  <si>
+    <t>DoinF</t>
+  </si>
+  <si>
+    <t>Real Spencer</t>
+  </si>
+  <si>
+    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
+  </si>
+  <si>
+    <t>Arabel Fortades</t>
+  </si>
+  <si>
+    <t>Arrah</t>
+  </si>
+  <si>
+    <t>Piolo A Aguilera</t>
   </si>
   <si>
     <t>Moose</t>
   </si>
   <si>
-    <t>Teejay Caraan</t>
-  </si>
-  <si>
-    <t>Makisig</t>
-  </si>
-  <si>
-    <t>-5</t>
-  </si>
-  <si>
-    <t>Reynold Zapanta</t>
-  </si>
-  <si>
-    <t>Chobei Aza</t>
-  </si>
-  <si>
-    <t>-4</t>
-  </si>
-  <si>
-    <t>Melvin Abilong</t>
-  </si>
-  <si>
-    <t>EGGPLANT GAMING</t>
-  </si>
-  <si>
-    <t>+0</t>
-  </si>
-  <si>
-    <t>Mark Lesther R. Tamayo</t>
-  </si>
-  <si>
-    <t>Łəstinē⁰⁵</t>
-  </si>
-  <si>
-    <t>Limar Nepomuceno</t>
-  </si>
-  <si>
-    <t>Aniloj23</t>
-  </si>
-  <si>
-    <t>Alvin Joseph</t>
-  </si>
-  <si>
-    <t>Sven Railey</t>
-  </si>
-  <si>
-    <t>Fernando Labajo</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°FERNZ</t>
+    <t xml:space="preserve">Christian Ferareza </t>
+  </si>
+  <si>
+    <t>ian</t>
+  </si>
+  <si>
+    <t>Von Ferran</t>
+  </si>
+  <si>
+    <t>Limitlsss</t>
+  </si>
+  <si>
+    <t>Rey Q Ibañez</t>
+  </si>
+  <si>
+    <t>ZenabiRhey</t>
   </si>
 </sst>
 </file>
@@ -210,7 +450,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1695792855" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697004958" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -243,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1695792855"/>
+          <pm:border xmlns:pm="smNativeData" id="1697004958"/>
         </ext>
       </extLst>
     </border>
@@ -261,7 +501,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1695792855" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1697004958" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -525,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -570,16 +810,16 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>503</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -587,22 +827,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="n">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="E3" t="n">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -610,22 +850,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>435</v>
+        <v>135</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -633,22 +873,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87</v>
+      </c>
+      <c r="E5" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
-        <v>367</v>
-      </c>
-      <c r="E5" t="n">
-        <v>49</v>
-      </c>
       <c r="F5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -656,22 +896,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>271</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -679,22 +919,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>327</v>
+        <v>148</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -702,22 +942,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>279</v>
+        <v>141</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -725,22 +965,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="E9" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -748,22 +988,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="E10" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -771,22 +1011,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="E11" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -794,22 +1034,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="E12" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -817,22 +1057,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>225</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F13" t="n">
-        <v>22</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -840,22 +1080,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -863,22 +1103,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="E15" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -886,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>239</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -909,22 +1149,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D17" t="n">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -932,22 +1172,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -955,29 +1195,1087 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="n">
+        <v>58</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="n">
+        <v>82</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="n">
+        <v>58</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>7</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="n">
+        <v>55</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="n">
+        <v>55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>7</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="n">
+        <v>55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C25" t="s">
         <v>53</v>
       </c>
-      <c r="D19" t="n">
-        <v>136</v>
-      </c>
-      <c r="E19" t="n">
-        <v>23</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
+      <c r="D25" t="n">
+        <v>52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="n">
+        <v>47</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="n">
+        <v>76</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="n">
+        <v>71</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="n">
+        <v>39</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="n">
+        <v>43</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="n">
+        <v>28</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="n">
+        <v>26</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1695792855" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697004958" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -986,16 +2284,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1695792855" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1695792855" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695792855" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1695792855" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1697004958" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697004958" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697004958" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697004958" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1695792855" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697004958" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/staticfiles/excel/Overall Rank.xlsx
+++ b/staticfiles/excel/Overall Rank.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1697004958" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1697004958" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1697004958" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1697004958"/>
+      <pm:revision xmlns:pm="smNativeData" day="1697177425" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1697177425" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1697177425" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1697177425"/>
     </ext>
   </extLst>
 </workbook>
@@ -64,18 +64,36 @@
     <t>repadz04</t>
   </si>
   <si>
+    <t>Fernando Labajo</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°FERNZ</t>
+  </si>
+  <si>
     <t>Anjelou F. Naong</t>
   </si>
   <si>
     <t>Aeon</t>
   </si>
   <si>
+    <t>Liezel Felipe</t>
+  </si>
+  <si>
+    <t>DoinF</t>
+  </si>
+  <si>
     <t>U Aung Kyaw Soe</t>
   </si>
   <si>
     <t>Leon</t>
   </si>
   <si>
+    <t>Gray Plays</t>
+  </si>
+  <si>
+    <t>ɢʀᴀʏ</t>
+  </si>
+  <si>
     <t>Jayson Pogoy</t>
   </si>
   <si>
@@ -97,48 +115,156 @@
     <t>ᴘᴇ | ᴄhocoknotz</t>
   </si>
   <si>
+    <t>Patrick Fermanes</t>
+  </si>
+  <si>
+    <t>Paᴛʀick God Mode</t>
+  </si>
+  <si>
+    <t>Kryztyn Cordero</t>
+  </si>
+  <si>
+    <t>ƚყɳ</t>
+  </si>
+  <si>
     <t>Jomailyn Fay P. Aguilar</t>
   </si>
   <si>
     <t>Star18</t>
   </si>
   <si>
+    <t>Clyde Morcillos</t>
+  </si>
+  <si>
+    <t>ᴮᶠᵁUNLOVED</t>
+  </si>
+  <si>
+    <t>Piolo A Aguilera</t>
+  </si>
+  <si>
+    <t>Sʜaɴᴇ♡</t>
+  </si>
+  <si>
     <t>Yoko Na</t>
   </si>
   <si>
     <t>Naga Siren</t>
   </si>
   <si>
+    <t>Xyvian Shane Gera Tia</t>
+  </si>
+  <si>
+    <t>Sʜᴇɴɢ♡</t>
+  </si>
+  <si>
+    <t>Real Spencer</t>
+  </si>
+  <si>
+    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
+  </si>
+  <si>
+    <t>Noelito De Gracia</t>
+  </si>
+  <si>
+    <t>Enelsuu.</t>
+  </si>
+  <si>
+    <t>Ian Gerome Alumno</t>
+  </si>
+  <si>
+    <t>IanTzy God Mode</t>
+  </si>
+  <si>
+    <t>Ranniel Tolentino</t>
+  </si>
+  <si>
+    <t>愛ʀᴀɴιᴇʟツ</t>
+  </si>
+  <si>
+    <t>Arabel Fortades</t>
+  </si>
+  <si>
+    <t>Arrah</t>
+  </si>
+  <si>
+    <t>Jomark Duran Cañelas</t>
+  </si>
+  <si>
+    <t>Solid Mensuration</t>
+  </si>
+  <si>
     <t>Socorro Reyes</t>
   </si>
   <si>
     <t>Soki71</t>
   </si>
   <si>
+    <t>Denise Fulo</t>
+  </si>
+  <si>
+    <t>Ishie.</t>
+  </si>
+  <si>
     <t>Jay C. Montes</t>
   </si>
   <si>
     <t>SIKAD</t>
   </si>
   <si>
+    <t>Renz Silang Rico</t>
+  </si>
+  <si>
+    <t>Maldito</t>
+  </si>
+  <si>
+    <t>Joshua Villegas</t>
+  </si>
+  <si>
+    <t>ʏᴏɴᴋᴏ Shanks</t>
+  </si>
+  <si>
+    <t>Oliveranz Alvarez</t>
+  </si>
+  <si>
+    <t>fluffybok</t>
+  </si>
+  <si>
     <t>Nilchar Mitsuhide</t>
   </si>
   <si>
     <t>Pakbet ni Aling Beth</t>
   </si>
   <si>
+    <t>Christian Nevado</t>
+  </si>
+  <si>
+    <t>av⁰² Jinx</t>
+  </si>
+  <si>
     <t>Choii Zhee</t>
   </si>
   <si>
     <t>Kurdapyo</t>
   </si>
   <si>
+    <t>Jaylord Sanchez Cabije</t>
+  </si>
+  <si>
+    <t>ST★RKING</t>
+  </si>
+  <si>
     <t>Jundel Palma</t>
   </si>
   <si>
     <t>Sukol DAW Beh</t>
   </si>
   <si>
+    <t>Paolo Biscayda</t>
+  </si>
+  <si>
+    <t>MARU.</t>
+  </si>
+  <si>
     <t>Kevin Ongjunco</t>
   </si>
   <si>
@@ -151,6 +277,24 @@
     <t>Jinny</t>
   </si>
   <si>
+    <t>Teejay Caraan</t>
+  </si>
+  <si>
+    <t>makisig</t>
+  </si>
+  <si>
+    <t>Rey Q Ibañez</t>
+  </si>
+  <si>
+    <t>ZenabiRhey</t>
+  </si>
+  <si>
+    <t>Brian Okta Vyanto Eky Mahendra</t>
+  </si>
+  <si>
+    <t>AS.Briii</t>
+  </si>
+  <si>
     <t>Sharwin Paolo Cabataña</t>
   </si>
   <si>
@@ -169,6 +313,18 @@
     <t>Aniloj23</t>
   </si>
   <si>
+    <t>Cedric Mer Villegas</t>
+  </si>
+  <si>
+    <t>DeathGun001</t>
+  </si>
+  <si>
+    <t>Xanuel Mark Beatingo</t>
+  </si>
+  <si>
+    <t>ᴘᴏᴘᴏ</t>
+  </si>
+  <si>
     <t>Michael Angelo S Trongco</t>
   </si>
   <si>
@@ -193,6 +349,18 @@
     <t>ᴵᴱ°HowMuch</t>
   </si>
   <si>
+    <t>Edgardo Estrada</t>
+  </si>
+  <si>
+    <t>EdStronG</t>
+  </si>
+  <si>
+    <t>Lucky John Tagala</t>
+  </si>
+  <si>
+    <t>Antimage</t>
+  </si>
+  <si>
     <t>Ely John Guevarra</t>
   </si>
   <si>
@@ -205,12 +373,24 @@
     <t>EGGPLANT GAMING</t>
   </si>
   <si>
+    <t>Bobot Solano</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
+  </si>
+  <si>
     <t>Ryan Jay Maambong Zarate</t>
   </si>
   <si>
     <t>MAGNUS</t>
   </si>
   <si>
+    <t>Mark Lesther R. Tamayo</t>
+  </si>
+  <si>
+    <t>Łəstinē⁰⁵</t>
+  </si>
+  <si>
     <t>John Dave V. Lazaga</t>
   </si>
   <si>
@@ -235,196 +415,16 @@
     <t>Lando.</t>
   </si>
   <si>
-    <t>Lhove</t>
-  </si>
-  <si>
-    <t>Jowa ko si S1</t>
-  </si>
-  <si>
-    <t>Ace Candy</t>
-  </si>
-  <si>
-    <t>Draude</t>
-  </si>
-  <si>
-    <t>Brian Okta Vyanto Eky Mahendra</t>
-  </si>
-  <si>
-    <t>AS.Briii</t>
-  </si>
-  <si>
-    <t>Paolo Biscayda</t>
-  </si>
-  <si>
-    <t>MARU.</t>
-  </si>
-  <si>
-    <t>Ranniel Tolentino</t>
-  </si>
-  <si>
-    <t>愛ʀᴀɴιᴇʟツ</t>
-  </si>
-  <si>
-    <t>Jomark Duran Cañelas</t>
-  </si>
-  <si>
-    <t>Solid Mensuration</t>
-  </si>
-  <si>
-    <t>Jaylord Sanchez Cabije</t>
-  </si>
-  <si>
-    <t>WholsJohnGalt</t>
-  </si>
-  <si>
-    <t>Mark Lesther R. Tamayo</t>
-  </si>
-  <si>
-    <t>Łəstinē⁰⁵</t>
-  </si>
-  <si>
-    <t>Akuh Nhi</t>
-  </si>
-  <si>
-    <t>AIM</t>
-  </si>
-  <si>
-    <t>Lucky John Tagala</t>
-  </si>
-  <si>
-    <t>Antimage</t>
-  </si>
-  <si>
-    <t>Joshua Villegas</t>
-  </si>
-  <si>
-    <t>ʏᴏɴᴋᴏ Shanks</t>
-  </si>
-  <si>
-    <t>Edgardo Estrada</t>
-  </si>
-  <si>
-    <t>EdStronG</t>
-  </si>
-  <si>
-    <t>Christian Nevado</t>
-  </si>
-  <si>
-    <t>av⁰² Jinx</t>
-  </si>
-  <si>
-    <t>Ian Gerome Alumno</t>
-  </si>
-  <si>
-    <t>IanTzy God Mode</t>
-  </si>
-  <si>
-    <t>Xyvian Shane Gera Tia</t>
-  </si>
-  <si>
-    <t>Sʜᴇɴɢ♡</t>
-  </si>
-  <si>
-    <t>Kryztyn Cordero</t>
-  </si>
-  <si>
-    <t>ƚყɳ</t>
-  </si>
-  <si>
-    <t>Fernando Labajo</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°FERNZ</t>
-  </si>
-  <si>
-    <t>Teejay Caraan</t>
-  </si>
-  <si>
-    <t>makisig</t>
-  </si>
-  <si>
-    <t>Denise Fulo</t>
-  </si>
-  <si>
-    <t>Ishie.</t>
-  </si>
-  <si>
-    <t>Patrick Fermanes</t>
-  </si>
-  <si>
-    <t>Paᴛʀick God Mode</t>
-  </si>
-  <si>
-    <t>Cedric Mer Villegas</t>
-  </si>
-  <si>
-    <t>DeathGun001</t>
-  </si>
-  <si>
-    <t>Renz Silang Rico</t>
-  </si>
-  <si>
-    <t>Maldito</t>
-  </si>
-  <si>
-    <t>Clyde Morcillos</t>
-  </si>
-  <si>
-    <t>ᴮᶠᵁUNLOVED</t>
-  </si>
-  <si>
-    <t>Gray Plays</t>
-  </si>
-  <si>
-    <t>ɢʀᴀʏ</t>
-  </si>
-  <si>
-    <t>Jimmy E. Elloran</t>
-  </si>
-  <si>
-    <t>Нyроиіх</t>
-  </si>
-  <si>
-    <t>Liezel Felipe</t>
-  </si>
-  <si>
-    <t>DoinF</t>
-  </si>
-  <si>
-    <t>Real Spencer</t>
-  </si>
-  <si>
-    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
-  </si>
-  <si>
-    <t>Arabel Fortades</t>
-  </si>
-  <si>
-    <t>Arrah</t>
-  </si>
-  <si>
-    <t>Piolo A Aguilera</t>
-  </si>
-  <si>
-    <t>Moose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Ferareza </t>
-  </si>
-  <si>
-    <t>ian</t>
-  </si>
-  <si>
-    <t>Von Ferran</t>
-  </si>
-  <si>
-    <t>Limitlsss</t>
-  </si>
-  <si>
-    <t>Rey Q Ibañez</t>
-  </si>
-  <si>
-    <t>ZenabiRhey</t>
+    <t>RM Capulong</t>
+  </si>
+  <si>
+    <t>mariepeng</t>
+  </si>
+  <si>
+    <t>Jay Paul Butad</t>
+  </si>
+  <si>
+    <t>I'll roam</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697004958" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697177425" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -483,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1697004958"/>
+          <pm:border xmlns:pm="smNativeData" id="1697177425"/>
         </ext>
       </extLst>
     </border>
@@ -501,7 +501,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1697004958" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1697177425" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -879,13 +879,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
@@ -925,13 +925,13 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -948,13 +948,13 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1011,16 +1011,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
@@ -1034,16 +1034,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
@@ -1063,13 +1063,13 @@
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
@@ -1132,13 +1132,13 @@
         <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>37</v>
       </c>
       <c r="D17" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>7</v>
@@ -1201,13 +1201,13 @@
         <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1270,13 +1270,13 @@
         <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1293,13 +1293,13 @@
         <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1316,13 +1316,13 @@
         <v>51</v>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1362,13 +1362,13 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F27" t="n">
         <v>9</v>
@@ -1411,7 +1411,7 @@
         <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
@@ -1431,13 +1431,13 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F31" t="n">
         <v>8</v>
@@ -1500,13 +1500,13 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1523,13 +1523,13 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>73</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1592,13 +1592,13 @@
         <v>75</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>79</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>81</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1684,13 +1684,13 @@
         <v>83</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1707,13 +1707,13 @@
         <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1730,13 +1730,13 @@
         <v>87</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1753,13 +1753,13 @@
         <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1799,13 +1799,13 @@
         <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1845,13 +1845,13 @@
         <v>97</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1868,13 +1868,13 @@
         <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>105</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1960,13 +1960,13 @@
         <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>109</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2006,13 +2006,13 @@
         <v>111</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2029,13 +2029,13 @@
         <v>113</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>117</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2098,13 +2098,13 @@
         <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>121</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2144,13 +2144,13 @@
         <v>123</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2167,13 +2167,13 @@
         <v>125</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2190,13 +2190,13 @@
         <v>127</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2213,13 +2213,13 @@
         <v>129</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         <v>131</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2275,7 +2275,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1697004958" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697177425" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2284,16 +2284,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1697004958" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1697004958" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697004958" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697004958" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1697177425" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697177425" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697177425" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697177425" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697004958" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697177425" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/staticfiles/excel/Overall Rank.xlsx
+++ b/staticfiles/excel/Overall Rank.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1697177425" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1697177425" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1697177425" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1697177425"/>
+      <pm:revision xmlns:pm="smNativeData" day="1697436584" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1697436584" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1697436584" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1697436584"/>
     </ext>
   </extLst>
 </workbook>
@@ -52,16 +52,97 @@
     <t>ʸᵍᵒ ᴇʀɪs°</t>
   </si>
   <si>
+    <t>Emz M. Cinco</t>
+  </si>
+  <si>
+    <t>repadz04</t>
+  </si>
+  <si>
     <t>Prince Nitsuga</t>
   </si>
   <si>
     <t>Aj Prince</t>
   </si>
   <si>
-    <t>Emz M. Cinco</t>
-  </si>
-  <si>
-    <t>repadz04</t>
+    <t>Clyde Morcillos</t>
+  </si>
+  <si>
+    <t>ᴮᶠᵁUNLOVED</t>
+  </si>
+  <si>
+    <t>Piolo A Aguilera</t>
+  </si>
+  <si>
+    <t>Sʜaɴᴇ♡</t>
+  </si>
+  <si>
+    <t>Ian Gerome Alumno</t>
+  </si>
+  <si>
+    <t>IanTzy God Mode</t>
+  </si>
+  <si>
+    <t>Patrick Fermanes</t>
+  </si>
+  <si>
+    <t>Paᴛʀick God Mode</t>
+  </si>
+  <si>
+    <t>Jay-ar Villarin Sacayan</t>
+  </si>
+  <si>
+    <t>ᴘᴇ | ᴄhocoknotz</t>
+  </si>
+  <si>
+    <t>Kryztyn Cordero</t>
+  </si>
+  <si>
+    <t>ƚყɳ</t>
+  </si>
+  <si>
+    <t>Yoon Ei</t>
+  </si>
+  <si>
+    <t>Brian Okta Vyanto Eky Mahendra</t>
+  </si>
+  <si>
+    <t>AS.Briii</t>
+  </si>
+  <si>
+    <t>Christian Nevado</t>
+  </si>
+  <si>
+    <t>av⁰² Jinx</t>
+  </si>
+  <si>
+    <t>Jay C. Montes</t>
+  </si>
+  <si>
+    <t>SIKAD</t>
+  </si>
+  <si>
+    <t>Renz Silang Rico</t>
+  </si>
+  <si>
+    <t>Maldito</t>
+  </si>
+  <si>
+    <t>Oliveranz Alvarez</t>
+  </si>
+  <si>
+    <t>fluffybok</t>
+  </si>
+  <si>
+    <t>Choii Zhee</t>
+  </si>
+  <si>
+    <t>Kurdapyo</t>
+  </si>
+  <si>
+    <t>Noelito De Gracia</t>
+  </si>
+  <si>
+    <t>Enelsuu.</t>
   </si>
   <si>
     <t>Fernando Labajo</t>
@@ -70,28 +151,184 @@
     <t>ᴵᴱ°FERNZ</t>
   </si>
   <si>
+    <t>Limar N.Ramis</t>
+  </si>
+  <si>
+    <t>Aniloj23</t>
+  </si>
+  <si>
     <t>Anjelou F. Naong</t>
   </si>
   <si>
     <t>Aeon</t>
   </si>
   <si>
+    <t>Gray Plays</t>
+  </si>
+  <si>
+    <t>ɢʀᴀʏ</t>
+  </si>
+  <si>
+    <t>U Aung Kyaw Soe</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Rowie Gell Gallego</t>
+  </si>
+  <si>
+    <t>Kayl.</t>
+  </si>
+  <si>
     <t>Liezel Felipe</t>
   </si>
   <si>
     <t>DoinF</t>
   </si>
   <si>
-    <t>U Aung Kyaw Soe</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Gray Plays</t>
-  </si>
-  <si>
-    <t>ɢʀᴀʏ</t>
+    <t>Socorro Reyes</t>
+  </si>
+  <si>
+    <t>Soki71</t>
+  </si>
+  <si>
+    <t>Jd Pedraja</t>
+  </si>
+  <si>
+    <t>Shantidolph</t>
+  </si>
+  <si>
+    <t>Jomailyn Fay P. Aguilar</t>
+  </si>
+  <si>
+    <t>Star18</t>
+  </si>
+  <si>
+    <t>Skidamarink Arellano</t>
+  </si>
+  <si>
+    <t>MikeeMike</t>
+  </si>
+  <si>
+    <t>Jomark Duran Cañelas</t>
+  </si>
+  <si>
+    <t>Solid Mensuration</t>
+  </si>
+  <si>
+    <t>Jaylord Sanchez Cabije</t>
+  </si>
+  <si>
+    <t>ST★RKING</t>
+  </si>
+  <si>
+    <t>Xyvian Shane Gera Tia</t>
+  </si>
+  <si>
+    <t>Sʜᴇɴɢ♡</t>
+  </si>
+  <si>
+    <t>Yoko Na</t>
+  </si>
+  <si>
+    <t>Naga Siren</t>
+  </si>
+  <si>
+    <t>Melvin Abilong</t>
+  </si>
+  <si>
+    <t>EGGPLANT GAMING</t>
+  </si>
+  <si>
+    <t>Real Spencer</t>
+  </si>
+  <si>
+    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
+  </si>
+  <si>
+    <t>Ryan Jay Maambong Zarate</t>
+  </si>
+  <si>
+    <t>MAGNUS</t>
+  </si>
+  <si>
+    <t>Michael Angelo S Trongco</t>
+  </si>
+  <si>
+    <t>Asmodeus.</t>
+  </si>
+  <si>
+    <t>Edgardo Estrada</t>
+  </si>
+  <si>
+    <t>EdStronG</t>
+  </si>
+  <si>
+    <t>Denise Fulo</t>
+  </si>
+  <si>
+    <t>Ishie.</t>
+  </si>
+  <si>
+    <t>Arabel Fortades</t>
+  </si>
+  <si>
+    <t>Arrah</t>
+  </si>
+  <si>
+    <t>Paolo Biscayda</t>
+  </si>
+  <si>
+    <t>MARU.</t>
+  </si>
+  <si>
+    <t>Teejay Caraan</t>
+  </si>
+  <si>
+    <t>makisig</t>
+  </si>
+  <si>
+    <t>Jinny Lapadan</t>
+  </si>
+  <si>
+    <t>Jinny</t>
+  </si>
+  <si>
+    <t>Joshua Villegas</t>
+  </si>
+  <si>
+    <t>ʏᴏɴᴋᴏ Shanks</t>
+  </si>
+  <si>
+    <t>Kevin Ongjunco</t>
+  </si>
+  <si>
+    <t>{†KILLAZ†}</t>
+  </si>
+  <si>
+    <t>Enry Charles Bernardo</t>
+  </si>
+  <si>
+    <t>Ryy.</t>
+  </si>
+  <si>
+    <t>Jundel Palma</t>
+  </si>
+  <si>
+    <t>Sukol DAW Beh</t>
+  </si>
+  <si>
+    <t>Relly H. Medina</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°HowMuch</t>
+  </si>
+  <si>
+    <t>Rey Q Ibañez</t>
+  </si>
+  <si>
+    <t>ZenabiRhey</t>
   </si>
   <si>
     <t>Jayson Pogoy</t>
@@ -100,79 +337,40 @@
     <t>Flux.</t>
   </si>
   <si>
-    <t>Rowie Gell Gallego</t>
-  </si>
-  <si>
-    <t>Kayl.</t>
-  </si>
-  <si>
-    <t>Yoon Ei</t>
-  </si>
-  <si>
-    <t>Jay-ar Villarin Sacayan</t>
-  </si>
-  <si>
-    <t>ᴘᴇ | ᴄhocoknotz</t>
-  </si>
-  <si>
-    <t>Patrick Fermanes</t>
-  </si>
-  <si>
-    <t>Paᴛʀick God Mode</t>
-  </si>
-  <si>
-    <t>Kryztyn Cordero</t>
-  </si>
-  <si>
-    <t>ƚყɳ</t>
-  </si>
-  <si>
-    <t>Jomailyn Fay P. Aguilar</t>
-  </si>
-  <si>
-    <t>Star18</t>
-  </si>
-  <si>
-    <t>Clyde Morcillos</t>
-  </si>
-  <si>
-    <t>ᴮᶠᵁUNLOVED</t>
-  </si>
-  <si>
-    <t>Piolo A Aguilera</t>
-  </si>
-  <si>
-    <t>Sʜaɴᴇ♡</t>
-  </si>
-  <si>
-    <t>Yoko Na</t>
-  </si>
-  <si>
-    <t>Naga Siren</t>
-  </si>
-  <si>
-    <t>Xyvian Shane Gera Tia</t>
-  </si>
-  <si>
-    <t>Sʜᴇɴɢ♡</t>
-  </si>
-  <si>
-    <t>Real Spencer</t>
-  </si>
-  <si>
-    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
-  </si>
-  <si>
-    <t>Noelito De Gracia</t>
-  </si>
-  <si>
-    <t>Enelsuu.</t>
-  </si>
-  <si>
-    <t>Ian Gerome Alumno</t>
-  </si>
-  <si>
-    <t>IanTzy God Mode</t>
+    <t>Sharwin Paolo Cabataña</t>
+  </si>
+  <si>
+    <t>Lewenzeith D. Pelaez</t>
+  </si>
+  <si>
+    <t>John Dave V. Lazaga</t>
+  </si>
+  <si>
+    <t>jd gwapo</t>
+  </si>
+  <si>
+    <t>Dan Antony Densing</t>
+  </si>
+  <si>
+    <t>dant0y</t>
+  </si>
+  <si>
+    <t>Lucky John Tagala</t>
+  </si>
+  <si>
+    <t>Antimage</t>
+  </si>
+  <si>
+    <t>Xanuel Mark Beatingo</t>
+  </si>
+  <si>
+    <t>ᴘᴏᴘᴏ</t>
+  </si>
+  <si>
+    <t>Cedric Mer Villegas</t>
+  </si>
+  <si>
+    <t>DeathGun001</t>
   </si>
   <si>
     <t>Ranniel Tolentino</t>
@@ -181,154 +379,22 @@
     <t>愛ʀᴀɴιᴇʟツ</t>
   </si>
   <si>
-    <t>Arabel Fortades</t>
-  </si>
-  <si>
-    <t>Arrah</t>
-  </si>
-  <si>
-    <t>Jomark Duran Cañelas</t>
-  </si>
-  <si>
-    <t>Solid Mensuration</t>
-  </si>
-  <si>
-    <t>Socorro Reyes</t>
-  </si>
-  <si>
-    <t>Soki71</t>
-  </si>
-  <si>
-    <t>Denise Fulo</t>
-  </si>
-  <si>
-    <t>Ishie.</t>
-  </si>
-  <si>
-    <t>Jay C. Montes</t>
-  </si>
-  <si>
-    <t>SIKAD</t>
-  </si>
-  <si>
-    <t>Renz Silang Rico</t>
-  </si>
-  <si>
-    <t>Maldito</t>
-  </si>
-  <si>
-    <t>Joshua Villegas</t>
-  </si>
-  <si>
-    <t>ʏᴏɴᴋᴏ Shanks</t>
-  </si>
-  <si>
-    <t>Oliveranz Alvarez</t>
-  </si>
-  <si>
-    <t>fluffybok</t>
-  </si>
-  <si>
     <t>Nilchar Mitsuhide</t>
   </si>
   <si>
     <t>Pakbet ni Aling Beth</t>
   </si>
   <si>
-    <t>Christian Nevado</t>
-  </si>
-  <si>
-    <t>av⁰² Jinx</t>
-  </si>
-  <si>
-    <t>Choii Zhee</t>
-  </si>
-  <si>
-    <t>Kurdapyo</t>
-  </si>
-  <si>
-    <t>Jaylord Sanchez Cabije</t>
-  </si>
-  <si>
-    <t>ST★RKING</t>
-  </si>
-  <si>
-    <t>Jundel Palma</t>
-  </si>
-  <si>
-    <t>Sukol DAW Beh</t>
-  </si>
-  <si>
-    <t>Paolo Biscayda</t>
-  </si>
-  <si>
-    <t>MARU.</t>
-  </si>
-  <si>
-    <t>Kevin Ongjunco</t>
-  </si>
-  <si>
-    <t>{†KILLAZ†}</t>
-  </si>
-  <si>
-    <t>Jinny Lapadan</t>
-  </si>
-  <si>
-    <t>Jinny</t>
-  </si>
-  <si>
-    <t>Teejay Caraan</t>
-  </si>
-  <si>
-    <t>makisig</t>
-  </si>
-  <si>
-    <t>Rey Q Ibañez</t>
-  </si>
-  <si>
-    <t>ZenabiRhey</t>
-  </si>
-  <si>
-    <t>Brian Okta Vyanto Eky Mahendra</t>
-  </si>
-  <si>
-    <t>AS.Briii</t>
-  </si>
-  <si>
-    <t>Sharwin Paolo Cabataña</t>
-  </si>
-  <si>
-    <t>Lewenzeith D. Pelaez</t>
-  </si>
-  <si>
-    <t>Skidamarink Arellano</t>
-  </si>
-  <si>
-    <t>MikeeMike</t>
-  </si>
-  <si>
-    <t>Limar N.Ramis</t>
-  </si>
-  <si>
-    <t>Aniloj23</t>
-  </si>
-  <si>
-    <t>Cedric Mer Villegas</t>
-  </si>
-  <si>
-    <t>DeathGun001</t>
-  </si>
-  <si>
-    <t>Xanuel Mark Beatingo</t>
-  </si>
-  <si>
-    <t>ᴘᴏᴘᴏ</t>
-  </si>
-  <si>
-    <t>Michael Angelo S Trongco</t>
-  </si>
-  <si>
-    <t>Asmodeus.</t>
+    <t>Ely John Guevarra</t>
+  </si>
+  <si>
+    <t>my.heart.went.chips.</t>
+  </si>
+  <si>
+    <t>RM Capulong</t>
+  </si>
+  <si>
+    <t>mariepeng</t>
   </si>
   <si>
     <t>Joey Carlo Doysabas</t>
@@ -337,40 +403,10 @@
     <t>❦᭄Daenerys♛</t>
   </si>
   <si>
-    <t>Enry Charles Bernardo</t>
-  </si>
-  <si>
-    <t>Ryy.</t>
-  </si>
-  <si>
-    <t>Relly H. Medina</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°HowMuch</t>
-  </si>
-  <si>
-    <t>Edgardo Estrada</t>
-  </si>
-  <si>
-    <t>EdStronG</t>
-  </si>
-  <si>
-    <t>Lucky John Tagala</t>
-  </si>
-  <si>
-    <t>Antimage</t>
-  </si>
-  <si>
-    <t>Ely John Guevarra</t>
-  </si>
-  <si>
-    <t>my.heart.went.chips.</t>
-  </si>
-  <si>
-    <t>Melvin Abilong</t>
-  </si>
-  <si>
-    <t>EGGPLANT GAMING</t>
+    <t>Jay Paul Butad</t>
+  </si>
+  <si>
+    <t>I'll roam</t>
   </si>
   <si>
     <t>Bobot Solano</t>
@@ -379,52 +415,16 @@
     <t>Yoshi</t>
   </si>
   <si>
-    <t>Ryan Jay Maambong Zarate</t>
-  </si>
-  <si>
-    <t>MAGNUS</t>
-  </si>
-  <si>
     <t>Mark Lesther R. Tamayo</t>
   </si>
   <si>
     <t>Łəstinē⁰⁵</t>
   </si>
   <si>
-    <t>John Dave V. Lazaga</t>
-  </si>
-  <si>
-    <t>jd gwapo</t>
-  </si>
-  <si>
-    <t>Jd Pedraja</t>
-  </si>
-  <si>
-    <t>Shantidolph</t>
-  </si>
-  <si>
-    <t>Dan Antony Densing</t>
-  </si>
-  <si>
-    <t>dant0y</t>
-  </si>
-  <si>
     <t>Christian Dula Mosende</t>
   </si>
   <si>
     <t>Lando.</t>
-  </si>
-  <si>
-    <t>RM Capulong</t>
-  </si>
-  <si>
-    <t>mariepeng</t>
-  </si>
-  <si>
-    <t>Jay Paul Butad</t>
-  </si>
-  <si>
-    <t>I'll roam</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697177425" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697436584" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -483,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1697177425"/>
+          <pm:border xmlns:pm="smNativeData" id="1697436584"/>
         </ext>
       </extLst>
     </border>
@@ -501,7 +501,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1697177425" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1697436584" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -810,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>97</v>
+        <v>246</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="E4" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,16 +879,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="E5" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,16 +902,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,16 +925,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="E7" t="n">
+        <v>29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
         <v>16</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,16 +948,16 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>219</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
+        <v>15</v>
+      </c>
+      <c r="G8" t="n">
         <v>6</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,16 +971,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>91</v>
+        <v>203</v>
       </c>
       <c r="E9" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
         <v>4</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,16 +994,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1034,22 +1034,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1063,16 +1063,16 @@
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1086,16 +1086,16 @@
         <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1109,16 +1109,16 @@
         <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>88</v>
+        <v>265</v>
       </c>
       <c r="E15" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1132,16 +1132,16 @@
         <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="E16" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1155,16 +1155,16 @@
         <v>37</v>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>144</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1178,16 +1178,16 @@
         <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,16 +1201,16 @@
         <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="E19" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,16 +1224,16 @@
         <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,16 +1247,16 @@
         <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E21" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,16 +1270,16 @@
         <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="E22" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1316,16 +1316,16 @@
         <v>51</v>
       </c>
       <c r="D24" t="n">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,16 +1339,16 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="E25" t="n">
+        <v>22</v>
+      </c>
+      <c r="F25" t="n">
         <v>11</v>
       </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,16 +1362,16 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="E26" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,16 +1385,16 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E27" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,16 +1408,16 @@
         <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,16 +1431,16 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="E29" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,16 +1454,16 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,16 +1477,16 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E31" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F31" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,16 +1500,16 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,16 +1523,16 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="E33" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F33" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,16 +1546,16 @@
         <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,16 +1569,16 @@
         <v>73</v>
       </c>
       <c r="D35" t="n">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F35" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,16 +1592,16 @@
         <v>75</v>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="E36" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,16 +1615,16 @@
         <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="E37" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,16 +1638,16 @@
         <v>79</v>
       </c>
       <c r="D38" t="n">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E38" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,16 +1661,16 @@
         <v>81</v>
       </c>
       <c r="D39" t="n">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="E39" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,16 +1684,16 @@
         <v>83</v>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="E40" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,16 +1707,16 @@
         <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,16 +1730,16 @@
         <v>87</v>
       </c>
       <c r="D42" t="n">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="E42" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,16 +1753,16 @@
         <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E43" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,16 +1776,16 @@
         <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="E44" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F44" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,16 +1799,16 @@
         <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F45" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,16 +1822,16 @@
         <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F46" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,16 +1845,16 @@
         <v>97</v>
       </c>
       <c r="D47" t="n">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F47" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,16 +1868,16 @@
         <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F48" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,16 +1891,16 @@
         <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E49" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,16 +1914,16 @@
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="E50" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F50" t="n">
         <v>8</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,16 +1937,16 @@
         <v>105</v>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c r="E51" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F51" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1960,16 +1960,16 @@
         <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F52" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1983,16 +1983,16 @@
         <v>109</v>
       </c>
       <c r="D53" t="n">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2006,13 +2006,13 @@
         <v>111</v>
       </c>
       <c r="D54" t="n">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2029,16 +2029,16 @@
         <v>113</v>
       </c>
       <c r="D55" t="n">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2052,16 +2052,16 @@
         <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2075,16 +2075,16 @@
         <v>117</v>
       </c>
       <c r="D57" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E57" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F57" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2098,16 +2098,16 @@
         <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="E58" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F58" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2121,16 +2121,16 @@
         <v>121</v>
       </c>
       <c r="D59" t="n">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="E59" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2144,16 +2144,16 @@
         <v>123</v>
       </c>
       <c r="D60" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E60" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F60" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2167,16 +2167,16 @@
         <v>125</v>
       </c>
       <c r="D61" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F61" t="n">
         <v>8</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2190,16 +2190,16 @@
         <v>127</v>
       </c>
       <c r="D62" t="n">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2213,16 +2213,16 @@
         <v>129</v>
       </c>
       <c r="D63" t="n">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2236,16 +2236,16 @@
         <v>131</v>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F64" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2259,23 +2259,23 @@
         <v>133</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1697177425" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697436584" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2284,16 +2284,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1697177425" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1697177425" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697177425" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697177425" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1697436584" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697436584" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697436584" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697436584" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697177425" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697436584" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/staticfiles/excel/Overall Rank.xlsx
+++ b/staticfiles/excel/Overall Rank.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1697436584" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1697436584" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1697436584" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1697436584"/>
+      <pm:revision xmlns:pm="smNativeData" day="1697954224" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1697954224" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1697954224" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1697954224"/>
     </ext>
   </extLst>
 </workbook>
@@ -70,18 +70,30 @@
     <t>ᴮᶠᵁUNLOVED</t>
   </si>
   <si>
+    <t>Ian Gerome Alumno</t>
+  </si>
+  <si>
+    <t>IanTzy God Mode</t>
+  </si>
+  <si>
+    <t>Choii Zhee</t>
+  </si>
+  <si>
+    <t>Kurdapyo</t>
+  </si>
+  <si>
+    <t>Renz Silang Rico</t>
+  </si>
+  <si>
+    <t>Maldito</t>
+  </si>
+  <si>
     <t>Piolo A Aguilera</t>
   </si>
   <si>
     <t>Sʜaɴᴇ♡</t>
   </si>
   <si>
-    <t>Ian Gerome Alumno</t>
-  </si>
-  <si>
-    <t>IanTzy God Mode</t>
-  </si>
-  <si>
     <t>Patrick Fermanes</t>
   </si>
   <si>
@@ -94,25 +106,169 @@
     <t>ᴘᴇ | ᴄhocoknotz</t>
   </si>
   <si>
+    <t>Skidamarink Arellano</t>
+  </si>
+  <si>
+    <t>MikeeMike</t>
+  </si>
+  <si>
+    <t>Gray Plays</t>
+  </si>
+  <si>
+    <t>ɢʀᴀʏ</t>
+  </si>
+  <si>
+    <t>Noelito De Gracia</t>
+  </si>
+  <si>
+    <t>Enelsuu.</t>
+  </si>
+  <si>
+    <t>Xyvian Shane Gera Tia</t>
+  </si>
+  <si>
+    <t>Sʜᴇɴɢ♡</t>
+  </si>
+  <si>
+    <t>Anjelou F. Naong</t>
+  </si>
+  <si>
+    <t>Aeon</t>
+  </si>
+  <si>
+    <t>Brian Okta Vyanto Eky Mahendra</t>
+  </si>
+  <si>
+    <t>AS.Briii</t>
+  </si>
+  <si>
+    <t>Yoon Ei</t>
+  </si>
+  <si>
+    <t>Christian Nevado</t>
+  </si>
+  <si>
+    <t>av⁰² Jinx</t>
+  </si>
+  <si>
+    <t>Oliveranz Alvarez</t>
+  </si>
+  <si>
+    <t>fluffybok</t>
+  </si>
+  <si>
+    <t>Jaylord Sanchez Cabije</t>
+  </si>
+  <si>
+    <t>ST★RKING</t>
+  </si>
+  <si>
+    <t>Limar N.Ramis</t>
+  </si>
+  <si>
+    <t>Aniloj23</t>
+  </si>
+  <si>
+    <t>U Aung Kyaw Soe</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Joshua Villegas</t>
+  </si>
+  <si>
+    <t>ʏᴏɴᴋᴏ Shanks</t>
+  </si>
+  <si>
+    <t>Melvin Abilong</t>
+  </si>
+  <si>
+    <t>EGGPLANT GAMING</t>
+  </si>
+  <si>
+    <t>Relly H. Medina</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°HowMuch</t>
+  </si>
+  <si>
+    <t>Sharwin Paolo Cabataña</t>
+  </si>
+  <si>
+    <t>Lewenzeith D. Pelaez</t>
+  </si>
+  <si>
+    <t>Jd Pedraja</t>
+  </si>
+  <si>
+    <t>Shantidolph</t>
+  </si>
+  <si>
+    <t>Jomailyn Fay P. Aguilar</t>
+  </si>
+  <si>
+    <t>Star18</t>
+  </si>
+  <si>
+    <t>Enry Charles Bernardo</t>
+  </si>
+  <si>
+    <t>Ryy.</t>
+  </si>
+  <si>
+    <t>Fernando Labajo</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°FERNZ</t>
+  </si>
+  <si>
+    <t>Edgardo Estrada</t>
+  </si>
+  <si>
+    <t>EdStronG</t>
+  </si>
+  <si>
     <t>Kryztyn Cordero</t>
   </si>
   <si>
     <t>ƚყɳ</t>
   </si>
   <si>
-    <t>Yoon Ei</t>
-  </si>
-  <si>
-    <t>Brian Okta Vyanto Eky Mahendra</t>
-  </si>
-  <si>
-    <t>AS.Briii</t>
-  </si>
-  <si>
-    <t>Christian Nevado</t>
-  </si>
-  <si>
-    <t>av⁰² Jinx</t>
+    <t>Real Spencer</t>
+  </si>
+  <si>
+    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
+  </si>
+  <si>
+    <t>Ryan Jay Maambong Zarate</t>
+  </si>
+  <si>
+    <t>MAGNUS</t>
+  </si>
+  <si>
+    <t>Teejay Caraan</t>
+  </si>
+  <si>
+    <t>makisig</t>
+  </si>
+  <si>
+    <t>Yoko Na</t>
+  </si>
+  <si>
+    <t>Naga Siren</t>
+  </si>
+  <si>
+    <t>Jundel Palma</t>
+  </si>
+  <si>
+    <t>Sukol DAW Beh</t>
+  </si>
+  <si>
+    <t>Jay Paul Butad</t>
+  </si>
+  <si>
+    <t>I'll roam</t>
   </si>
   <si>
     <t>Jay C. Montes</t>
@@ -121,58 +277,34 @@
     <t>SIKAD</t>
   </si>
   <si>
-    <t>Renz Silang Rico</t>
-  </si>
-  <si>
-    <t>Maldito</t>
-  </si>
-  <si>
-    <t>Oliveranz Alvarez</t>
-  </si>
-  <si>
-    <t>fluffybok</t>
-  </si>
-  <si>
-    <t>Choii Zhee</t>
-  </si>
-  <si>
-    <t>Kurdapyo</t>
-  </si>
-  <si>
-    <t>Noelito De Gracia</t>
-  </si>
-  <si>
-    <t>Enelsuu.</t>
-  </si>
-  <si>
-    <t>Fernando Labajo</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°FERNZ</t>
-  </si>
-  <si>
-    <t>Limar N.Ramis</t>
-  </si>
-  <si>
-    <t>Aniloj23</t>
-  </si>
-  <si>
-    <t>Anjelou F. Naong</t>
-  </si>
-  <si>
-    <t>Aeon</t>
-  </si>
-  <si>
-    <t>Gray Plays</t>
-  </si>
-  <si>
-    <t>ɢʀᴀʏ</t>
-  </si>
-  <si>
-    <t>U Aung Kyaw Soe</t>
-  </si>
-  <si>
-    <t>Leon</t>
+    <t>Paolo Biscayda</t>
+  </si>
+  <si>
+    <t>MARU.</t>
+  </si>
+  <si>
+    <t>Kevin Ongjunco</t>
+  </si>
+  <si>
+    <t>{†KILLAZ†}</t>
+  </si>
+  <si>
+    <t>Michael Angelo S Trongco</t>
+  </si>
+  <si>
+    <t>Asmodeus.</t>
+  </si>
+  <si>
+    <t>Denise Fulo</t>
+  </si>
+  <si>
+    <t>Ishie.</t>
+  </si>
+  <si>
+    <t>Rey Q Ibañez</t>
+  </si>
+  <si>
+    <t>ZenabiRhey</t>
   </si>
   <si>
     <t>Rowie Gell Gallego</t>
@@ -187,88 +319,40 @@
     <t>DoinF</t>
   </si>
   <si>
+    <t>Cedric Mer Villegas</t>
+  </si>
+  <si>
+    <t>DeathGun001</t>
+  </si>
+  <si>
     <t>Socorro Reyes</t>
   </si>
   <si>
     <t>Soki71</t>
   </si>
   <si>
-    <t>Jd Pedraja</t>
-  </si>
-  <si>
-    <t>Shantidolph</t>
-  </si>
-  <si>
-    <t>Jomailyn Fay P. Aguilar</t>
-  </si>
-  <si>
-    <t>Star18</t>
-  </si>
-  <si>
-    <t>Skidamarink Arellano</t>
-  </si>
-  <si>
-    <t>MikeeMike</t>
-  </si>
-  <si>
     <t>Jomark Duran Cañelas</t>
   </si>
   <si>
     <t>Solid Mensuration</t>
   </si>
   <si>
-    <t>Jaylord Sanchez Cabije</t>
-  </si>
-  <si>
-    <t>ST★RKING</t>
-  </si>
-  <si>
-    <t>Xyvian Shane Gera Tia</t>
-  </si>
-  <si>
-    <t>Sʜᴇɴɢ♡</t>
-  </si>
-  <si>
-    <t>Yoko Na</t>
-  </si>
-  <si>
-    <t>Naga Siren</t>
-  </si>
-  <si>
-    <t>Melvin Abilong</t>
-  </si>
-  <si>
-    <t>EGGPLANT GAMING</t>
-  </si>
-  <si>
-    <t>Real Spencer</t>
-  </si>
-  <si>
-    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
-  </si>
-  <si>
-    <t>Ryan Jay Maambong Zarate</t>
-  </si>
-  <si>
-    <t>MAGNUS</t>
-  </si>
-  <si>
-    <t>Michael Angelo S Trongco</t>
-  </si>
-  <si>
-    <t>Asmodeus.</t>
-  </si>
-  <si>
-    <t>Edgardo Estrada</t>
-  </si>
-  <si>
-    <t>EdStronG</t>
-  </si>
-  <si>
-    <t>Denise Fulo</t>
-  </si>
-  <si>
-    <t>Ishie.</t>
+    <t>John Dave V. Lazaga</t>
+  </si>
+  <si>
+    <t>jd gwapo</t>
+  </si>
+  <si>
+    <t>Xanuel Mark Beatingo</t>
+  </si>
+  <si>
+    <t>ᴘᴏᴘᴏ</t>
+  </si>
+  <si>
+    <t>Dan Antony Densing</t>
+  </si>
+  <si>
+    <t>dant0y</t>
   </si>
   <si>
     <t>Arabel Fortades</t>
@@ -277,82 +361,28 @@
     <t>Arrah</t>
   </si>
   <si>
-    <t>Paolo Biscayda</t>
-  </si>
-  <si>
-    <t>MARU.</t>
-  </si>
-  <si>
-    <t>Teejay Caraan</t>
-  </si>
-  <si>
-    <t>makisig</t>
-  </si>
-  <si>
     <t>Jinny Lapadan</t>
   </si>
   <si>
     <t>Jinny</t>
   </si>
   <si>
-    <t>Joshua Villegas</t>
-  </si>
-  <si>
-    <t>ʏᴏɴᴋᴏ Shanks</t>
-  </si>
-  <si>
-    <t>Kevin Ongjunco</t>
-  </si>
-  <si>
-    <t>{†KILLAZ†}</t>
-  </si>
-  <si>
-    <t>Enry Charles Bernardo</t>
-  </si>
-  <si>
-    <t>Ryy.</t>
-  </si>
-  <si>
-    <t>Jundel Palma</t>
-  </si>
-  <si>
-    <t>Sukol DAW Beh</t>
-  </si>
-  <si>
-    <t>Relly H. Medina</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°HowMuch</t>
-  </si>
-  <si>
-    <t>Rey Q Ibañez</t>
-  </si>
-  <si>
-    <t>ZenabiRhey</t>
-  </si>
-  <si>
     <t>Jayson Pogoy</t>
   </si>
   <si>
     <t>Flux.</t>
   </si>
   <si>
-    <t>Sharwin Paolo Cabataña</t>
-  </si>
-  <si>
-    <t>Lewenzeith D. Pelaez</t>
-  </si>
-  <si>
-    <t>John Dave V. Lazaga</t>
-  </si>
-  <si>
-    <t>jd gwapo</t>
-  </si>
-  <si>
-    <t>Dan Antony Densing</t>
-  </si>
-  <si>
-    <t>dant0y</t>
+    <t>Bobot Solano</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
+  </si>
+  <si>
+    <t>RM Capulong</t>
+  </si>
+  <si>
+    <t>mariepeng</t>
   </si>
   <si>
     <t>Lucky John Tagala</t>
@@ -361,16 +391,10 @@
     <t>Antimage</t>
   </si>
   <si>
-    <t>Xanuel Mark Beatingo</t>
-  </si>
-  <si>
-    <t>ᴘᴏᴘᴏ</t>
-  </si>
-  <si>
-    <t>Cedric Mer Villegas</t>
-  </si>
-  <si>
-    <t>DeathGun001</t>
+    <t>Joey Carlo Doysabas</t>
+  </si>
+  <si>
+    <t>❦᭄Daenerys♛</t>
   </si>
   <si>
     <t>Ranniel Tolentino</t>
@@ -379,40 +403,16 @@
     <t>愛ʀᴀɴιᴇʟツ</t>
   </si>
   <si>
+    <t>Ely John Guevarra</t>
+  </si>
+  <si>
+    <t>my.heart.went.chips.</t>
+  </si>
+  <si>
     <t>Nilchar Mitsuhide</t>
   </si>
   <si>
     <t>Pakbet ni Aling Beth</t>
-  </si>
-  <si>
-    <t>Ely John Guevarra</t>
-  </si>
-  <si>
-    <t>my.heart.went.chips.</t>
-  </si>
-  <si>
-    <t>RM Capulong</t>
-  </si>
-  <si>
-    <t>mariepeng</t>
-  </si>
-  <si>
-    <t>Joey Carlo Doysabas</t>
-  </si>
-  <si>
-    <t>❦᭄Daenerys♛</t>
-  </si>
-  <si>
-    <t>Jay Paul Butad</t>
-  </si>
-  <si>
-    <t>I'll roam</t>
-  </si>
-  <si>
-    <t>Bobot Solano</t>
-  </si>
-  <si>
-    <t>Yoshi</t>
   </si>
   <si>
     <t>Mark Lesther R. Tamayo</t>
@@ -450,7 +450,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697436584" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1697954224" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -483,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1697436584"/>
+          <pm:border xmlns:pm="smNativeData" id="1697954224"/>
         </ext>
       </extLst>
     </border>
@@ -501,7 +501,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1697436584" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1697954224" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -810,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>246</v>
+        <v>336</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="E3" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>238</v>
+        <v>309</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,16 +879,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="E5" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,16 +902,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,16 +925,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,16 +948,16 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>219</v>
+        <v>329</v>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F8" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,16 +971,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="E9" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,16 +994,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1034,22 +1034,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="E12" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1057,22 +1057,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="E13" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1080,22 +1080,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="E14" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F14" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1103,22 +1103,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1149,22 +1149,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" t="n">
+        <v>208</v>
+      </c>
+      <c r="E17" t="n">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" t="n">
-        <v>144</v>
-      </c>
-      <c r="E17" t="n">
-        <v>25</v>
-      </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G17" t="n">
-        <v>18</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1172,22 +1172,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>153</v>
+        <v>332</v>
       </c>
       <c r="E18" t="n">
+        <v>35</v>
+      </c>
+      <c r="F18" t="n">
         <v>24</v>
       </c>
-      <c r="F18" t="n">
-        <v>14</v>
-      </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,16 +1201,16 @@
         <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,16 +1224,16 @@
         <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,16 +1247,16 @@
         <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G21" t="n">
-        <v>-15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,16 +1270,16 @@
         <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>-13</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="E23" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F23" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1316,16 +1316,16 @@
         <v>51</v>
       </c>
       <c r="D24" t="n">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="E24" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F24" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G24" t="n">
-        <v>-13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,16 +1339,16 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="E25" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>-18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,16 +1362,16 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="E26" t="n">
+        <v>31</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23</v>
+      </c>
+      <c r="G26" t="n">
         <v>22</v>
-      </c>
-      <c r="F26" t="n">
-        <v>15</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,16 +1385,16 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E27" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,16 +1408,16 @@
         <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="E28" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G28" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,16 +1431,16 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="E29" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,16 +1454,16 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="E30" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F30" t="n">
+        <v>24</v>
+      </c>
+      <c r="G30" t="n">
         <v>16</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,16 +1477,16 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="E31" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,16 +1500,16 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="E32" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F32" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G32" t="n">
-        <v>-12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,16 +1523,16 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E33" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G33" t="n">
-        <v>-14</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,16 +1546,16 @@
         <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="E34" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G34" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,16 +1569,16 @@
         <v>73</v>
       </c>
       <c r="D35" t="n">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="E35" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F35" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G35" t="n">
-        <v>-14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,16 +1592,16 @@
         <v>75</v>
       </c>
       <c r="D36" t="n">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="E36" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F36" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,16 +1615,16 @@
         <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="E37" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F37" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G37" t="n">
-        <v>12</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,16 +1638,16 @@
         <v>79</v>
       </c>
       <c r="D38" t="n">
-        <v>121</v>
+        <v>190</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F38" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,16 +1661,16 @@
         <v>81</v>
       </c>
       <c r="D39" t="n">
-        <v>118</v>
+        <v>166</v>
       </c>
       <c r="E39" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
-        <v>-11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,16 +1684,16 @@
         <v>83</v>
       </c>
       <c r="D40" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E40" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G40" t="n">
-        <v>-15</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,16 +1707,16 @@
         <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="E41" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,16 +1730,16 @@
         <v>87</v>
       </c>
       <c r="D42" t="n">
-        <v>112</v>
+        <v>202</v>
       </c>
       <c r="E42" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F42" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G42" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,16 +1753,16 @@
         <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="E43" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F43" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G43" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,16 +1776,16 @@
         <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E44" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F44" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G44" t="n">
-        <v>-13</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,16 +1799,16 @@
         <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F45" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G45" t="n">
-        <v>-6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,16 +1822,16 @@
         <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E46" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,16 +1845,16 @@
         <v>97</v>
       </c>
       <c r="D47" t="n">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="E47" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F47" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>-10</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,16 +1868,16 @@
         <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F48" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G48" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,16 +1891,16 @@
         <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="E49" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G49" t="n">
-        <v>-7</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,16 +1914,16 @@
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E50" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G50" t="n">
-        <v>-40</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,16 +1937,16 @@
         <v>105</v>
       </c>
       <c r="D51" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E51" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F51" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G51" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1960,16 +1960,16 @@
         <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>84</v>
+        <v>193</v>
       </c>
       <c r="E52" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F52" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1983,16 +1983,16 @@
         <v>109</v>
       </c>
       <c r="D53" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="E53" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G53" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2006,16 +2006,16 @@
         <v>111</v>
       </c>
       <c r="D54" t="n">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2029,16 +2029,16 @@
         <v>113</v>
       </c>
       <c r="D55" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E55" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>-7</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2052,16 +2052,16 @@
         <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="E56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F56" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G56" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2075,16 +2075,16 @@
         <v>117</v>
       </c>
       <c r="D57" t="n">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="E57" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G57" t="n">
-        <v>-33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2098,16 +2098,16 @@
         <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="E58" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G58" t="n">
-        <v>-25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2121,16 +2121,16 @@
         <v>121</v>
       </c>
       <c r="D59" t="n">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G59" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2144,16 +2144,16 @@
         <v>123</v>
       </c>
       <c r="D60" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="E60" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F60" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2167,16 +2167,16 @@
         <v>125</v>
       </c>
       <c r="D61" t="n">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E61" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G61" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2190,16 +2190,16 @@
         <v>127</v>
       </c>
       <c r="D62" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2213,16 +2213,16 @@
         <v>129</v>
       </c>
       <c r="D63" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E63" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F63" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2245,7 +2245,7 @@
         <v>8</v>
       </c>
       <c r="G64" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2268,14 +2268,14 @@
         <v>8</v>
       </c>
       <c r="G65" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1697436584" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1697954224" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2284,16 +2284,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1697436584" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1697436584" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697436584" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697436584" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1697954224" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1697954224" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697954224" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1697954224" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697436584" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697954224" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/staticfiles/excel/Overall Rank.xlsx
+++ b/staticfiles/excel/Overall Rank.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1697954224" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1697954224" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1697954224" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1697954224"/>
+      <pm:revision xmlns:pm="smNativeData" day="1698617482" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1698617482" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1698617482" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1698617482"/>
     </ext>
   </extLst>
 </workbook>
@@ -52,16 +52,61 @@
     <t>ʸᵍᵒ ᴇʀɪs°</t>
   </si>
   <si>
+    <t>Prince Nitsuga</t>
+  </si>
+  <si>
+    <t>Aj Prince</t>
+  </si>
+  <si>
+    <t>Ian Gerome Alumno</t>
+  </si>
+  <si>
+    <t>IanTzy God Mode</t>
+  </si>
+  <si>
     <t>Emz M. Cinco</t>
   </si>
   <si>
     <t>repadz04</t>
   </si>
   <si>
-    <t>Prince Nitsuga</t>
-  </si>
-  <si>
-    <t>Aj Prince</t>
+    <t>Patrick Fermanes</t>
+  </si>
+  <si>
+    <t>Paᴛʀick God Mode</t>
+  </si>
+  <si>
+    <t>Choii Zhee</t>
+  </si>
+  <si>
+    <t>Kurdapyo</t>
+  </si>
+  <si>
+    <t>Gray Plays</t>
+  </si>
+  <si>
+    <t>ɢʀᴀʏ</t>
+  </si>
+  <si>
+    <t>Anjelou F. Naong</t>
+  </si>
+  <si>
+    <t>Aeon</t>
+  </si>
+  <si>
+    <t>Piolo A Aguilera</t>
+  </si>
+  <si>
+    <t>Sʜaɴᴇ♡</t>
+  </si>
+  <si>
+    <t>Renz Silang Rico</t>
+  </si>
+  <si>
+    <t>Maldito</t>
+  </si>
+  <si>
+    <t>Yoon Ei</t>
   </si>
   <si>
     <t>Clyde Morcillos</t>
@@ -70,34 +115,76 @@
     <t>ᴮᶠᵁUNLOVED</t>
   </si>
   <si>
-    <t>Ian Gerome Alumno</t>
-  </si>
-  <si>
-    <t>IanTzy God Mode</t>
-  </si>
-  <si>
-    <t>Choii Zhee</t>
-  </si>
-  <si>
-    <t>Kurdapyo</t>
-  </si>
-  <si>
-    <t>Renz Silang Rico</t>
-  </si>
-  <si>
-    <t>Maldito</t>
-  </si>
-  <si>
-    <t>Piolo A Aguilera</t>
-  </si>
-  <si>
-    <t>Sʜaɴᴇ♡</t>
-  </si>
-  <si>
-    <t>Patrick Fermanes</t>
-  </si>
-  <si>
-    <t>Paᴛʀick God Mode</t>
+    <t>Xyvian Shane Gera Tia</t>
+  </si>
+  <si>
+    <t>Sʜᴇɴɢ♡</t>
+  </si>
+  <si>
+    <t>Noelito De Gracia</t>
+  </si>
+  <si>
+    <t>Enelsuu.</t>
+  </si>
+  <si>
+    <t>Skidamarink Arellano</t>
+  </si>
+  <si>
+    <t>MikeeMike</t>
+  </si>
+  <si>
+    <t>U Aung Kyaw Soe</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Jd Pedraja</t>
+  </si>
+  <si>
+    <t>Shantidolph</t>
+  </si>
+  <si>
+    <t>Jundel Palma</t>
+  </si>
+  <si>
+    <t>Sukol DAW Beh</t>
+  </si>
+  <si>
+    <t>Christian Nevado</t>
+  </si>
+  <si>
+    <t>av⁰² Jinx</t>
+  </si>
+  <si>
+    <t>Oliveranz Alvarez</t>
+  </si>
+  <si>
+    <t>fluffybok</t>
+  </si>
+  <si>
+    <t>Kryztyn Cordero</t>
+  </si>
+  <si>
+    <t>ƚყɳ</t>
+  </si>
+  <si>
+    <t>Limar N.Ramis</t>
+  </si>
+  <si>
+    <t>Aniloj23</t>
+  </si>
+  <si>
+    <t>Ryan Jay Maambong Zarate</t>
+  </si>
+  <si>
+    <t>MAGNUS</t>
+  </si>
+  <si>
+    <t>Jaylord Sanchez Cabije</t>
+  </si>
+  <si>
+    <t>ST★RKING</t>
   </si>
   <si>
     <t>Jay-ar Villarin Sacayan</t>
@@ -106,34 +193,10 @@
     <t>ᴘᴇ | ᴄhocoknotz</t>
   </si>
   <si>
-    <t>Skidamarink Arellano</t>
-  </si>
-  <si>
-    <t>MikeeMike</t>
-  </si>
-  <si>
-    <t>Gray Plays</t>
-  </si>
-  <si>
-    <t>ɢʀᴀʏ</t>
-  </si>
-  <si>
-    <t>Noelito De Gracia</t>
-  </si>
-  <si>
-    <t>Enelsuu.</t>
-  </si>
-  <si>
-    <t>Xyvian Shane Gera Tia</t>
-  </si>
-  <si>
-    <t>Sʜᴇɴɢ♡</t>
-  </si>
-  <si>
-    <t>Anjelou F. Naong</t>
-  </si>
-  <si>
-    <t>Aeon</t>
+    <t>Fernando Labajo</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°FERNZ</t>
   </si>
   <si>
     <t>Brian Okta Vyanto Eky Mahendra</t>
@@ -142,39 +205,6 @@
     <t>AS.Briii</t>
   </si>
   <si>
-    <t>Yoon Ei</t>
-  </si>
-  <si>
-    <t>Christian Nevado</t>
-  </si>
-  <si>
-    <t>av⁰² Jinx</t>
-  </si>
-  <si>
-    <t>Oliveranz Alvarez</t>
-  </si>
-  <si>
-    <t>fluffybok</t>
-  </si>
-  <si>
-    <t>Jaylord Sanchez Cabije</t>
-  </si>
-  <si>
-    <t>ST★RKING</t>
-  </si>
-  <si>
-    <t>Limar N.Ramis</t>
-  </si>
-  <si>
-    <t>Aniloj23</t>
-  </si>
-  <si>
-    <t>U Aung Kyaw Soe</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
     <t>Joshua Villegas</t>
   </si>
   <si>
@@ -187,90 +217,90 @@
     <t>EGGPLANT GAMING</t>
   </si>
   <si>
+    <t>Sharwin Paolo Cabataña</t>
+  </si>
+  <si>
+    <t>Lewenzeith D. Pelaez</t>
+  </si>
+  <si>
+    <t>Enry Charles Bernardo</t>
+  </si>
+  <si>
+    <t>Ryy.</t>
+  </si>
+  <si>
+    <t>Jomailyn Fay P. Aguilar</t>
+  </si>
+  <si>
+    <t>Star18</t>
+  </si>
+  <si>
+    <t>Edgardo Estrada</t>
+  </si>
+  <si>
+    <t>EdStronG</t>
+  </si>
+  <si>
+    <t>John Dave V. Lazaga</t>
+  </si>
+  <si>
+    <t>jd gwapo</t>
+  </si>
+  <si>
+    <t>Real Spencer</t>
+  </si>
+  <si>
+    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
+  </si>
+  <si>
+    <t>Kevin Ongjunco</t>
+  </si>
+  <si>
+    <t>{†KILLAZ†}</t>
+  </si>
+  <si>
+    <t>Teejay Caraan</t>
+  </si>
+  <si>
+    <t>makisig</t>
+  </si>
+  <si>
     <t>Relly H. Medina</t>
   </si>
   <si>
     <t>ᴵᴱ°HowMuch</t>
   </si>
   <si>
-    <t>Sharwin Paolo Cabataña</t>
-  </si>
-  <si>
-    <t>Lewenzeith D. Pelaez</t>
-  </si>
-  <si>
-    <t>Jd Pedraja</t>
-  </si>
-  <si>
-    <t>Shantidolph</t>
-  </si>
-  <si>
-    <t>Jomailyn Fay P. Aguilar</t>
-  </si>
-  <si>
-    <t>Star18</t>
-  </si>
-  <si>
-    <t>Enry Charles Bernardo</t>
-  </si>
-  <si>
-    <t>Ryy.</t>
-  </si>
-  <si>
-    <t>Fernando Labajo</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°FERNZ</t>
-  </si>
-  <si>
-    <t>Edgardo Estrada</t>
-  </si>
-  <si>
-    <t>EdStronG</t>
-  </si>
-  <si>
-    <t>Kryztyn Cordero</t>
-  </si>
-  <si>
-    <t>ƚყɳ</t>
-  </si>
-  <si>
-    <t>Real Spencer</t>
-  </si>
-  <si>
-    <t>ʸᵍᵒ ᴇᴀʀʟ</t>
-  </si>
-  <si>
-    <t>Ryan Jay Maambong Zarate</t>
-  </si>
-  <si>
-    <t>MAGNUS</t>
-  </si>
-  <si>
-    <t>Teejay Caraan</t>
-  </si>
-  <si>
-    <t>makisig</t>
-  </si>
-  <si>
     <t>Yoko Na</t>
   </si>
   <si>
     <t>Naga Siren</t>
   </si>
   <si>
-    <t>Jundel Palma</t>
-  </si>
-  <si>
-    <t>Sukol DAW Beh</t>
-  </si>
-  <si>
     <t>Jay Paul Butad</t>
   </si>
   <si>
     <t>I'll roam</t>
   </si>
   <si>
+    <t>Xanuel Mark Beatingo</t>
+  </si>
+  <si>
+    <t>ᴘᴏᴘᴏ</t>
+  </si>
+  <si>
+    <t>Socorro Reyes</t>
+  </si>
+  <si>
+    <t>Soki71</t>
+  </si>
+  <si>
+    <t>Rey Q Ibañez</t>
+  </si>
+  <si>
+    <t>ZenabiRhey</t>
+  </si>
+  <si>
     <t>Jay C. Montes</t>
   </si>
   <si>
@@ -283,12 +313,6 @@
     <t>MARU.</t>
   </si>
   <si>
-    <t>Kevin Ongjunco</t>
-  </si>
-  <si>
-    <t>{†KILLAZ†}</t>
-  </si>
-  <si>
     <t>Michael Angelo S Trongco</t>
   </si>
   <si>
@@ -301,10 +325,10 @@
     <t>Ishie.</t>
   </si>
   <si>
-    <t>Rey Q Ibañez</t>
-  </si>
-  <si>
-    <t>ZenabiRhey</t>
+    <t>RM Capulong</t>
+  </si>
+  <si>
+    <t>mariepeng</t>
   </si>
   <si>
     <t>Rowie Gell Gallego</t>
@@ -325,10 +349,16 @@
     <t>DeathGun001</t>
   </si>
   <si>
-    <t>Socorro Reyes</t>
-  </si>
-  <si>
-    <t>Soki71</t>
+    <t>Joey Carlo Doysabas</t>
+  </si>
+  <si>
+    <t>❦᭄Daenerys♛</t>
+  </si>
+  <si>
+    <t>Lucky John Tagala</t>
+  </si>
+  <si>
+    <t>Antimage</t>
   </si>
   <si>
     <t>Jomark Duran Cañelas</t>
@@ -337,18 +367,6 @@
     <t>Solid Mensuration</t>
   </si>
   <si>
-    <t>John Dave V. Lazaga</t>
-  </si>
-  <si>
-    <t>jd gwapo</t>
-  </si>
-  <si>
-    <t>Xanuel Mark Beatingo</t>
-  </si>
-  <si>
-    <t>ᴘᴏᴘᴏ</t>
-  </si>
-  <si>
     <t>Dan Antony Densing</t>
   </si>
   <si>
@@ -379,34 +397,16 @@
     <t>Yoshi</t>
   </si>
   <si>
-    <t>RM Capulong</t>
-  </si>
-  <si>
-    <t>mariepeng</t>
-  </si>
-  <si>
-    <t>Lucky John Tagala</t>
-  </si>
-  <si>
-    <t>Antimage</t>
-  </si>
-  <si>
-    <t>Joey Carlo Doysabas</t>
-  </si>
-  <si>
-    <t>❦᭄Daenerys♛</t>
+    <t>Ely John Guevarra</t>
+  </si>
+  <si>
+    <t>my.heart.went.chips.</t>
   </si>
   <si>
     <t>Ranniel Tolentino</t>
   </si>
   <si>
     <t>愛ʀᴀɴιᴇʟツ</t>
-  </si>
-  <si>
-    <t>Ely John Guevarra</t>
-  </si>
-  <si>
-    <t>my.heart.went.chips.</t>
   </si>
   <si>
     <t>Nilchar Mitsuhide</t>
@@ -450,7 +450,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1697954224" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1698617482" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -483,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1697954224"/>
+          <pm:border xmlns:pm="smNativeData" id="1698617482"/>
         </ext>
       </extLst>
     </border>
@@ -501,7 +501,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1697954224" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1698617482" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -810,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>336</v>
+        <v>416</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>255</v>
+        <v>397</v>
       </c>
       <c r="E3" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>309</v>
+        <v>372</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,16 +879,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,16 +902,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>283</v>
+        <v>444</v>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,16 +925,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="E7" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,16 +948,16 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="E8" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,16 +971,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E9" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G9" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,16 +994,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>302</v>
+        <v>373</v>
       </c>
       <c r="E10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1017,16 +1017,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>281</v>
+        <v>395</v>
       </c>
       <c r="E11" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G11" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1037,19 +1037,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>242</v>
+        <v>420</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1057,22 +1057,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
       <c r="D13" t="n">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>9</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1080,22 +1080,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
       <c r="D14" t="n">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="E14" t="n">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1103,22 +1103,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
       <c r="D15" t="n">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="E15" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
       <c r="D16" t="n">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="E16" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1149,22 +1149,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" t="n">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1172,22 +1172,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F18" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G18" t="n">
-        <v>-7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,16 +1201,16 @@
         <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G19" t="n">
-        <v>-6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,16 +1224,16 @@
         <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,16 +1247,16 @@
         <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>167</v>
+        <v>282</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,16 +1270,16 @@
         <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="E22" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G22" t="n">
-        <v>-2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>180</v>
+        <v>264</v>
       </c>
       <c r="E23" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1316,16 +1316,16 @@
         <v>51</v>
       </c>
       <c r="D24" t="n">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,16 +1339,16 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E25" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F25" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,16 +1362,16 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>22</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,16 +1385,16 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>195</v>
+        <v>274</v>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F27" t="n">
         <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,16 +1408,16 @@
         <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,16 +1431,16 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>213</v>
+        <v>351</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F29" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G29" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,16 +1454,16 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F30" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G30" t="n">
-        <v>16</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,16 +1477,16 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G31" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,16 +1500,16 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>167</v>
+        <v>275</v>
       </c>
       <c r="E32" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,16 +1523,16 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>160</v>
+        <v>266</v>
       </c>
       <c r="E33" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F33" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>-23</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,16 +1546,16 @@
         <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="E34" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F34" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,16 +1569,16 @@
         <v>73</v>
       </c>
       <c r="D35" t="n">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="E35" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F35" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,16 +1592,16 @@
         <v>75</v>
       </c>
       <c r="D36" t="n">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="E36" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,16 +1615,16 @@
         <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="E37" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F37" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G37" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,16 +1638,16 @@
         <v>79</v>
       </c>
       <c r="D38" t="n">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="E38" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F38" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G38" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,16 +1661,16 @@
         <v>81</v>
       </c>
       <c r="D39" t="n">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G39" t="n">
-        <v>23</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,16 +1684,16 @@
         <v>83</v>
       </c>
       <c r="D40" t="n">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E40" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G40" t="n">
-        <v>-26</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,16 +1707,16 @@
         <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E41" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F41" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,16 +1730,16 @@
         <v>87</v>
       </c>
       <c r="D42" t="n">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="E42" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F42" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,16 +1753,16 @@
         <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="E43" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G43" t="n">
-        <v>-6</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,16 +1776,16 @@
         <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="E44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F44" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G44" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,16 +1799,16 @@
         <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F45" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G45" t="n">
-        <v>4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,16 +1822,16 @@
         <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G46" t="n">
-        <v>-22</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1845,16 +1845,16 @@
         <v>97</v>
       </c>
       <c r="D47" t="n">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="E47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="G47" t="n">
-        <v>-22</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,16 +1868,16 @@
         <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G48" t="n">
-        <v>8</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,16 +1891,16 @@
         <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="E49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F49" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G49" t="n">
-        <v>-23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,16 +1914,16 @@
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="E50" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G50" t="n">
-        <v>-20</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,16 +1937,16 @@
         <v>105</v>
       </c>
       <c r="D51" t="n">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="E51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F51" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1960,16 +1960,16 @@
         <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F52" t="n">
         <v>25</v>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1983,16 +1983,16 @@
         <v>109</v>
       </c>
       <c r="D53" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="E53" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F53" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2006,16 +2006,16 @@
         <v>111</v>
       </c>
       <c r="D54" t="n">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="E54" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F54" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G54" t="n">
-        <v>-14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2029,16 +2029,16 @@
         <v>113</v>
       </c>
       <c r="D55" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="E55" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F55" t="n">
         <v>16</v>
       </c>
       <c r="G55" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2052,16 +2052,16 @@
         <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="E56" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F56" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G56" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2075,16 +2075,16 @@
         <v>117</v>
       </c>
       <c r="D57" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="E57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2098,16 +2098,16 @@
         <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2121,16 +2121,16 @@
         <v>121</v>
       </c>
       <c r="D59" t="n">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="E59" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F59" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G59" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2144,16 +2144,16 @@
         <v>123</v>
       </c>
       <c r="D60" t="n">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" t="n">
         <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2167,16 +2167,16 @@
         <v>125</v>
       </c>
       <c r="D61" t="n">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="E61" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G61" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2190,16 +2190,16 @@
         <v>127</v>
       </c>
       <c r="D62" t="n">
-        <v>142</v>
+        <v>64</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2222,7 +2222,7 @@
         <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2275,7 +2275,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1697954224" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1698617482" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2284,16 +2284,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1697954224" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1697954224" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697954224" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1697954224" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1698617482" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1698617482" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1698617482" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1698617482" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1697954224" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698617482" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/staticfiles/excel/Overall Rank.xlsx
+++ b/staticfiles/excel/Overall Rank.xlsx
@@ -13,10 +13,10 @@
   <calcPr calcOnSave="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1698617482" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1698617482" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1698617482" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1698617482"/>
+      <pm:revision xmlns:pm="smNativeData" day="1700807062" val="1066" rev="124" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1700807062" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1700807062" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1700807062"/>
     </ext>
   </extLst>
 </workbook>
@@ -52,28 +52,52 @@
     <t>ʸᵍᵒ ᴇʀɪs°</t>
   </si>
   <si>
+    <t>Kryztyn Cordero</t>
+  </si>
+  <si>
+    <t>ƚყɳ</t>
+  </si>
+  <si>
+    <t>Ian Gerome Alumno</t>
+  </si>
+  <si>
+    <t>IanTzy God Mode</t>
+  </si>
+  <si>
+    <t>Patrick Fermanes</t>
+  </si>
+  <si>
+    <t>Paᴛʀick God Mode</t>
+  </si>
+  <si>
+    <t>Gray Plays</t>
+  </si>
+  <si>
+    <t>ɢʀᴀʏ</t>
+  </si>
+  <si>
+    <t>Anjelou F. Naong</t>
+  </si>
+  <si>
+    <t>Aeon</t>
+  </si>
+  <si>
     <t>Prince Nitsuga</t>
   </si>
   <si>
     <t>Aj Prince</t>
   </si>
   <si>
-    <t>Ian Gerome Alumno</t>
-  </si>
-  <si>
-    <t>IanTzy God Mode</t>
-  </si>
-  <si>
     <t>Emz M. Cinco</t>
   </si>
   <si>
     <t>repadz04</t>
   </si>
   <si>
-    <t>Patrick Fermanes</t>
-  </si>
-  <si>
-    <t>Paᴛʀick God Mode</t>
+    <t>Renz Silang Rico</t>
+  </si>
+  <si>
+    <t>Maldito</t>
   </si>
   <si>
     <t>Choii Zhee</t>
@@ -82,16 +106,49 @@
     <t>Kurdapyo</t>
   </si>
   <si>
-    <t>Gray Plays</t>
-  </si>
-  <si>
-    <t>ɢʀᴀʏ</t>
-  </si>
-  <si>
-    <t>Anjelou F. Naong</t>
-  </si>
-  <si>
-    <t>Aeon</t>
+    <t>Jd Pedraja</t>
+  </si>
+  <si>
+    <t>Shantidolph</t>
+  </si>
+  <si>
+    <t>Jaylord Sanchez Cabije</t>
+  </si>
+  <si>
+    <t>ST★RKING</t>
+  </si>
+  <si>
+    <t>Noelito De Gracia</t>
+  </si>
+  <si>
+    <t>Enelsuu.</t>
+  </si>
+  <si>
+    <t>Yoon Ei</t>
+  </si>
+  <si>
+    <t>Xyvian Shane Gera Tia</t>
+  </si>
+  <si>
+    <t>Sʜᴇɴɢ♡</t>
+  </si>
+  <si>
+    <t>U Aung Kyaw Soe</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Clyde Morcillos</t>
+  </si>
+  <si>
+    <t>ᴮᶠᵁUNLOVED</t>
+  </si>
+  <si>
+    <t>Jundel Palma</t>
+  </si>
+  <si>
+    <t>Sukol DAW Beh</t>
   </si>
   <si>
     <t>Piolo A Aguilera</t>
@@ -100,31 +157,28 @@
     <t>Sʜaɴᴇ♡</t>
   </si>
   <si>
-    <t>Renz Silang Rico</t>
-  </si>
-  <si>
-    <t>Maldito</t>
-  </si>
-  <si>
-    <t>Yoon Ei</t>
-  </si>
-  <si>
-    <t>Clyde Morcillos</t>
-  </si>
-  <si>
-    <t>ᴮᶠᵁUNLOVED</t>
-  </si>
-  <si>
-    <t>Xyvian Shane Gera Tia</t>
-  </si>
-  <si>
-    <t>Sʜᴇɴɢ♡</t>
-  </si>
-  <si>
-    <t>Noelito De Gracia</t>
-  </si>
-  <si>
-    <t>Enelsuu.</t>
+    <t>Edgardo Estrada</t>
+  </si>
+  <si>
+    <t>EdStronG</t>
+  </si>
+  <si>
+    <t>Melvin Abilong</t>
+  </si>
+  <si>
+    <t>EGGPLANT GAMING</t>
+  </si>
+  <si>
+    <t>Sharwin Paolo Cabataña</t>
+  </si>
+  <si>
+    <t>Lewenzeith D. Pelaez</t>
+  </si>
+  <si>
+    <t>Teejay Caraan</t>
+  </si>
+  <si>
+    <t>makisig</t>
   </si>
   <si>
     <t>Skidamarink Arellano</t>
@@ -133,22 +187,34 @@
     <t>MikeeMike</t>
   </si>
   <si>
-    <t>U Aung Kyaw Soe</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
-    <t>Jd Pedraja</t>
-  </si>
-  <si>
-    <t>Shantidolph</t>
-  </si>
-  <si>
-    <t>Jundel Palma</t>
-  </si>
-  <si>
-    <t>Sukol DAW Beh</t>
+    <t>Oliveranz Alvarez</t>
+  </si>
+  <si>
+    <t>fluffybok</t>
+  </si>
+  <si>
+    <t>Joshua Villegas</t>
+  </si>
+  <si>
+    <t>ʏᴏɴᴋᴏ Shanks</t>
+  </si>
+  <si>
+    <t>Relly H. Medina</t>
+  </si>
+  <si>
+    <t>ᴵᴱ°HowMuch</t>
+  </si>
+  <si>
+    <t>Enry Charles Bernardo</t>
+  </si>
+  <si>
+    <t>Ryy.</t>
+  </si>
+  <si>
+    <t>Jomailyn Fay P. Aguilar</t>
+  </si>
+  <si>
+    <t>Star18</t>
   </si>
   <si>
     <t>Christian Nevado</t>
@@ -157,18 +223,6 @@
     <t>av⁰² Jinx</t>
   </si>
   <si>
-    <t>Oliveranz Alvarez</t>
-  </si>
-  <si>
-    <t>fluffybok</t>
-  </si>
-  <si>
-    <t>Kryztyn Cordero</t>
-  </si>
-  <si>
-    <t>ƚყɳ</t>
-  </si>
-  <si>
     <t>Limar N.Ramis</t>
   </si>
   <si>
@@ -181,12 +235,6 @@
     <t>MAGNUS</t>
   </si>
   <si>
-    <t>Jaylord Sanchez Cabije</t>
-  </si>
-  <si>
-    <t>ST★RKING</t>
-  </si>
-  <si>
     <t>Jay-ar Villarin Sacayan</t>
   </si>
   <si>
@@ -205,40 +253,16 @@
     <t>AS.Briii</t>
   </si>
   <si>
-    <t>Joshua Villegas</t>
-  </si>
-  <si>
-    <t>ʏᴏɴᴋᴏ Shanks</t>
-  </si>
-  <si>
-    <t>Melvin Abilong</t>
-  </si>
-  <si>
-    <t>EGGPLANT GAMING</t>
-  </si>
-  <si>
-    <t>Sharwin Paolo Cabataña</t>
-  </si>
-  <si>
-    <t>Lewenzeith D. Pelaez</t>
-  </si>
-  <si>
-    <t>Enry Charles Bernardo</t>
-  </si>
-  <si>
-    <t>Ryy.</t>
-  </si>
-  <si>
-    <t>Jomailyn Fay P. Aguilar</t>
-  </si>
-  <si>
-    <t>Star18</t>
-  </si>
-  <si>
-    <t>Edgardo Estrada</t>
-  </si>
-  <si>
-    <t>EdStronG</t>
+    <t>Kevin Ongjunco</t>
+  </si>
+  <si>
+    <t>{†KILLAZ†}</t>
+  </si>
+  <si>
+    <t>Xanuel Mark Beatingo</t>
+  </si>
+  <si>
+    <t>ᴘᴏᴘᴏ</t>
   </si>
   <si>
     <t>John Dave V. Lazaga</t>
@@ -247,28 +271,22 @@
     <t>jd gwapo</t>
   </si>
   <si>
+    <t>Socorro Reyes</t>
+  </si>
+  <si>
+    <t>Soki71</t>
+  </si>
+  <si>
     <t>Real Spencer</t>
   </si>
   <si>
     <t>ʸᵍᵒ ᴇᴀʀʟ</t>
   </si>
   <si>
-    <t>Kevin Ongjunco</t>
-  </si>
-  <si>
-    <t>{†KILLAZ†}</t>
-  </si>
-  <si>
-    <t>Teejay Caraan</t>
-  </si>
-  <si>
-    <t>makisig</t>
-  </si>
-  <si>
-    <t>Relly H. Medina</t>
-  </si>
-  <si>
-    <t>ᴵᴱ°HowMuch</t>
+    <t>Jayson Pogoy</t>
+  </si>
+  <si>
+    <t>Flux.</t>
   </si>
   <si>
     <t>Yoko Na</t>
@@ -277,36 +295,36 @@
     <t>Naga Siren</t>
   </si>
   <si>
+    <t>Rey Q Ibañez</t>
+  </si>
+  <si>
+    <t>ZenabiRhey</t>
+  </si>
+  <si>
+    <t>RM Capulong</t>
+  </si>
+  <si>
+    <t>mariepeng</t>
+  </si>
+  <si>
     <t>Jay Paul Butad</t>
   </si>
   <si>
     <t>I'll roam</t>
   </si>
   <si>
-    <t>Xanuel Mark Beatingo</t>
-  </si>
-  <si>
-    <t>ᴘᴏᴘᴏ</t>
-  </si>
-  <si>
-    <t>Socorro Reyes</t>
-  </si>
-  <si>
-    <t>Soki71</t>
-  </si>
-  <si>
-    <t>Rey Q Ibañez</t>
-  </si>
-  <si>
-    <t>ZenabiRhey</t>
-  </si>
-  <si>
     <t>Jay C. Montes</t>
   </si>
   <si>
     <t>SIKAD</t>
   </si>
   <si>
+    <t>Bobot Solano</t>
+  </si>
+  <si>
+    <t>Yoshi</t>
+  </si>
+  <si>
     <t>Paolo Biscayda</t>
   </si>
   <si>
@@ -325,12 +343,6 @@
     <t>Ishie.</t>
   </si>
   <si>
-    <t>RM Capulong</t>
-  </si>
-  <si>
-    <t>mariepeng</t>
-  </si>
-  <si>
     <t>Rowie Gell Gallego</t>
   </si>
   <si>
@@ -383,18 +395,6 @@
   </si>
   <si>
     <t>Jinny</t>
-  </si>
-  <si>
-    <t>Jayson Pogoy</t>
-  </si>
-  <si>
-    <t>Flux.</t>
-  </si>
-  <si>
-    <t>Bobot Solano</t>
-  </si>
-  <si>
-    <t>Yoshi</t>
   </si>
   <si>
     <t>Ely John Guevarra</t>
@@ -450,7 +450,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1698617482" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1700807062" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -483,7 +483,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1698617482"/>
+          <pm:border xmlns:pm="smNativeData" id="1700807062"/>
         </ext>
       </extLst>
     </border>
@@ -501,7 +501,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1698617482" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1700807062" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
     </ext>
@@ -768,7 +768,7 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -810,13 +810,13 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="E2" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -833,16 +833,16 @@
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="E3" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -856,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="E4" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -879,16 +879,16 @@
         <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>302</v>
+        <v>499</v>
       </c>
       <c r="E5" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F5" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -902,16 +902,16 @@
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>444</v>
+        <v>381</v>
       </c>
       <c r="E6" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -925,16 +925,16 @@
         <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -948,16 +948,16 @@
         <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>307</v>
+        <v>439</v>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -971,16 +971,16 @@
         <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>289</v>
+        <v>347</v>
       </c>
       <c r="E9" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -994,16 +994,16 @@
         <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>373</v>
+        <v>477</v>
       </c>
       <c r="E10" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1017,16 +1017,16 @@
         <v>26</v>
       </c>
       <c r="D11" t="n">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="F11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1037,16 +1037,16 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -1057,22 +1057,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E13" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F13" t="n">
         <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>-8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1080,19 +1080,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="n">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1103,22 +1103,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>303</v>
+        <v>466</v>
       </c>
       <c r="E15" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G15" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1132,16 +1132,16 @@
         <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="E16" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F16" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1155,16 +1155,16 @@
         <v>37</v>
       </c>
       <c r="D17" t="n">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="E17" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1178,16 +1178,16 @@
         <v>39</v>
       </c>
       <c r="D18" t="n">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="E18" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F18" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1201,16 +1201,16 @@
         <v>41</v>
       </c>
       <c r="D19" t="n">
-        <v>312</v>
+        <v>364</v>
       </c>
       <c r="E19" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1224,16 +1224,16 @@
         <v>43</v>
       </c>
       <c r="D20" t="n">
-        <v>301</v>
+        <v>373</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F20" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1247,16 +1247,16 @@
         <v>45</v>
       </c>
       <c r="D21" t="n">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="E21" t="n">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G21" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1270,16 +1270,16 @@
         <v>47</v>
       </c>
       <c r="D22" t="n">
-        <v>270</v>
+        <v>331</v>
       </c>
       <c r="E22" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="D23" t="n">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="E23" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F23" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="G23" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1319,13 +1319,13 @@
         <v>319</v>
       </c>
       <c r="E24" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1339,16 +1339,16 @@
         <v>53</v>
       </c>
       <c r="D25" t="n">
-        <v>226</v>
+        <v>318</v>
       </c>
       <c r="E25" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F25" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1362,16 +1362,16 @@
         <v>55</v>
       </c>
       <c r="D26" t="n">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F26" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="G26" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1385,16 +1385,16 @@
         <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>274</v>
+        <v>403</v>
       </c>
       <c r="E27" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F27" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1408,16 +1408,16 @@
         <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="E28" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G28" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1431,16 +1431,16 @@
         <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F29" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G29" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1454,16 +1454,16 @@
         <v>63</v>
       </c>
       <c r="D30" t="n">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="E30" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F30" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>-5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1477,16 +1477,16 @@
         <v>65</v>
       </c>
       <c r="D31" t="n">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="E31" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F31" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1500,16 +1500,16 @@
         <v>67</v>
       </c>
       <c r="D32" t="n">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E32" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F32" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G32" t="n">
-        <v>-2</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1523,16 +1523,16 @@
         <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>266</v>
+        <v>319</v>
       </c>
       <c r="E33" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F33" t="n">
         <v>30</v>
       </c>
       <c r="G33" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1546,16 +1546,16 @@
         <v>71</v>
       </c>
       <c r="D34" t="n">
-        <v>225</v>
+        <v>281</v>
       </c>
       <c r="E34" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1569,16 +1569,16 @@
         <v>73</v>
       </c>
       <c r="D35" t="n">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G35" t="n">
-        <v>16</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1592,16 +1592,16 @@
         <v>75</v>
       </c>
       <c r="D36" t="n">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G36" t="n">
-        <v>-2</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1615,16 +1615,16 @@
         <v>77</v>
       </c>
       <c r="D37" t="n">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="E37" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F37" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1638,16 +1638,16 @@
         <v>79</v>
       </c>
       <c r="D38" t="n">
-        <v>220</v>
+        <v>319</v>
       </c>
       <c r="E38" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F38" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G38" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1661,16 +1661,16 @@
         <v>81</v>
       </c>
       <c r="D39" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E39" t="n">
+        <v>36</v>
+      </c>
+      <c r="F39" t="n">
         <v>31</v>
       </c>
-      <c r="F39" t="n">
-        <v>23</v>
-      </c>
       <c r="G39" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1684,16 +1684,16 @@
         <v>83</v>
       </c>
       <c r="D40" t="n">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F40" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1707,16 +1707,16 @@
         <v>85</v>
       </c>
       <c r="D41" t="n">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="E41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F41" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G41" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1730,16 +1730,16 @@
         <v>87</v>
       </c>
       <c r="D42" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E42" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F42" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="G42" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1753,16 +1753,16 @@
         <v>89</v>
       </c>
       <c r="D43" t="n">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E43" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F43" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1776,16 +1776,16 @@
         <v>91</v>
       </c>
       <c r="D44" t="n">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="E44" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F44" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1799,16 +1799,16 @@
         <v>93</v>
       </c>
       <c r="D45" t="n">
-        <v>135</v>
+        <v>204</v>
       </c>
       <c r="E45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F45" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G45" t="n">
-        <v>-5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1822,13 +1822,13 @@
         <v>95</v>
       </c>
       <c r="D46" t="n">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="E46" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G46" t="n">
         <v>-5</v>
@@ -1845,16 +1845,16 @@
         <v>97</v>
       </c>
       <c r="D47" t="n">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="E47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F47" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G47" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1868,16 +1868,16 @@
         <v>99</v>
       </c>
       <c r="D48" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E48" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G48" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1891,16 +1891,16 @@
         <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E49" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G49" t="n">
-        <v>9</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1914,16 +1914,16 @@
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E50" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F50" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G50" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1937,16 +1937,16 @@
         <v>105</v>
       </c>
       <c r="D51" t="n">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G51" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1960,16 +1960,16 @@
         <v>107</v>
       </c>
       <c r="D52" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E52" t="n">
         <v>22</v>
       </c>
       <c r="F52" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G52" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1983,16 +1983,16 @@
         <v>109</v>
       </c>
       <c r="D53" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E53" t="n">
         <v>22</v>
       </c>
       <c r="F53" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2006,16 +2006,16 @@
         <v>111</v>
       </c>
       <c r="D54" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E54" t="n">
         <v>22</v>
       </c>
       <c r="F54" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2029,16 +2029,16 @@
         <v>113</v>
       </c>
       <c r="D55" t="n">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="E55" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F55" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G55" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2052,16 +2052,16 @@
         <v>115</v>
       </c>
       <c r="D56" t="n">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="E56" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F56" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G56" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2075,16 +2075,16 @@
         <v>117</v>
       </c>
       <c r="D57" t="n">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E57" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G57" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2098,16 +2098,16 @@
         <v>119</v>
       </c>
       <c r="D58" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E58" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F58" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G58" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2121,16 +2121,16 @@
         <v>121</v>
       </c>
       <c r="D59" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G59" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2144,16 +2144,16 @@
         <v>123</v>
       </c>
       <c r="D60" t="n">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="E60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F60" t="n">
         <v>16</v>
       </c>
       <c r="G60" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2176,7 +2176,7 @@
         <v>32</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2199,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="G62" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2275,7 +2275,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1698617482" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1700807062" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -2284,16 +2284,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1698617482" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1698617482" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698617482" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1698617482" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1700807062" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1700807062" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700807062" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1700807062" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1698617482" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1700807062" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
